--- a/sensitivity.xlsx
+++ b/sensitivity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -111,6 +111,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1863,11 +1864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-406347104"/>
-        <c:axId val="-406219056"/>
+        <c:axId val="547698816"/>
+        <c:axId val="547549504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-406347104"/>
+        <c:axId val="547698816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,12 +1879,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-406219056"/>
+        <c:crossAx val="547549504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-406219056"/>
+        <c:axId val="547549504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1894,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-406347104"/>
+        <c:crossAx val="547698816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2594,11 +2595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-364337904"/>
-        <c:axId val="-364335584"/>
+        <c:axId val="451404672"/>
+        <c:axId val="451407152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-364337904"/>
+        <c:axId val="451404672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,12 +2609,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-364335584"/>
+        <c:crossAx val="451407152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-364335584"/>
+        <c:axId val="451407152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,7 +2624,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-364337904"/>
+        <c:crossAx val="451404672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7735,15 +7736,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:F100"/>
+  <dimension ref="D1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="K200" sqref="K200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D1">
         <v>1</v>
       </c>
@@ -7754,8 +7755,14 @@
         <f>1/D1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>0.01</v>
+      </c>
+      <c r="H1">
+        <v>326.81400000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D2">
         <f>D1+1</f>
         <v>2</v>
@@ -7767,8 +7774,15 @@
         <f t="shared" ref="F2:F65" si="0">1/D2</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>G1+0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>356.69299999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D3">
         <f t="shared" ref="D3:D66" si="1">D2+1</f>
         <v>3</v>
@@ -7780,8 +7794,15 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="2">G2+0.01</f>
+        <v>0.03</v>
+      </c>
+      <c r="H3">
+        <v>410.26499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7793,8 +7814,15 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="H4">
+        <v>286.685</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D5">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7806,8 +7834,15 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>301.85599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7819,8 +7854,15 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="H6">
+        <v>266.22800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D7">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -7832,8 +7874,15 @@
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H7">
+        <v>281.09899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D8">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7845,8 +7894,15 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="H8">
+        <v>293.39699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D9">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -7858,8 +7914,15 @@
         <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="H9">
+        <v>304.18400000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -7871,8 +7934,15 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="H10">
+        <v>320.15899999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -7884,8 +7954,15 @@
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="H11">
+        <v>297.78899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D12">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7897,8 +7974,15 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="H12">
+        <v>261.21699999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D13">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7910,8 +7994,15 @@
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="H13">
+        <v>334.37099999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D14">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7923,8 +8014,15 @@
         <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="H14">
+        <v>247.69499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D15">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7936,8 +8034,15 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="H15">
+        <v>245.387</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D16">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7949,8 +8054,15 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="H16">
+        <v>310.66500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D17">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7962,8 +8074,15 @@
         <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.17</v>
+      </c>
+      <c r="H17">
+        <v>242.745</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D18">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7975,8 +8094,15 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="H18">
+        <v>448.423</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D19">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7988,8 +8114,15 @@
         <f t="shared" si="0"/>
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="H19">
+        <v>278.863</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D20">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -8001,8 +8134,15 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="H20">
+        <v>272.73500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D21">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -8014,8 +8154,15 @@
         <f t="shared" si="0"/>
         <v>4.7619047619047616E-2</v>
       </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000005</v>
+      </c>
+      <c r="H21">
+        <v>304.72800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D22">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -8027,8 +8174,15 @@
         <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.22000000000000006</v>
+      </c>
+      <c r="H22">
+        <v>242.66399999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D23">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -8040,8 +8194,15 @@
         <f t="shared" si="0"/>
         <v>4.3478260869565216E-2</v>
       </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.23000000000000007</v>
+      </c>
+      <c r="H23">
+        <v>254.39599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D24">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -8053,8 +8214,15 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="H24">
+        <v>257.97500000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D25">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -8066,8 +8234,15 @@
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="H25">
+        <v>300.91500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D26">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -8079,8 +8254,15 @@
         <f t="shared" si="0"/>
         <v>3.8461538461538464E-2</v>
       </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0.26000000000000006</v>
+      </c>
+      <c r="H26">
+        <v>273.8</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D27">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -8092,8 +8274,15 @@
         <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0.27000000000000007</v>
+      </c>
+      <c r="H27">
+        <v>296.19799999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D28">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -8105,8 +8294,15 @@
         <f t="shared" si="0"/>
         <v>3.5714285714285712E-2</v>
       </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000008</v>
+      </c>
+      <c r="H28">
+        <v>297.322</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D29">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -8118,8 +8314,15 @@
         <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0.29000000000000009</v>
+      </c>
+      <c r="H29">
+        <v>244.86699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D30">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8131,8 +8334,15 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="H30">
+        <v>284.77100000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D31">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -8144,8 +8354,15 @@
         <f t="shared" si="0"/>
         <v>3.2258064516129031E-2</v>
       </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="H31">
+        <v>307.49400000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D32">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -8157,8 +8374,15 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="H32">
+        <v>359.45699999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D33">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -8170,8 +8394,15 @@
         <f t="shared" si="0"/>
         <v>3.0303030303030304E-2</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0.33000000000000013</v>
+      </c>
+      <c r="H33">
+        <v>255.928</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D34">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -8183,8 +8414,15 @@
         <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0.34000000000000014</v>
+      </c>
+      <c r="H34">
+        <v>302.28300000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D35">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -8196,8 +8434,15 @@
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.35000000000000014</v>
+      </c>
+      <c r="H35">
+        <v>236.75700000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D36">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8209,8 +8454,15 @@
         <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.36000000000000015</v>
+      </c>
+      <c r="H36">
+        <v>268.935</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D37">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8222,8 +8474,15 @@
         <f t="shared" si="0"/>
         <v>2.7027027027027029E-2</v>
       </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.37000000000000016</v>
+      </c>
+      <c r="H37">
+        <v>269.20299999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D38">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8235,8 +8494,15 @@
         <f t="shared" si="0"/>
         <v>2.6315789473684209E-2</v>
       </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0.38000000000000017</v>
+      </c>
+      <c r="H38">
+        <v>220.554</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D39">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8248,8 +8514,15 @@
         <f t="shared" si="0"/>
         <v>2.564102564102564E-2</v>
       </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0.39000000000000018</v>
+      </c>
+      <c r="H39">
+        <v>230.321</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D40">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8261,8 +8534,15 @@
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="H40">
+        <v>275.012</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D41">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8274,8 +8554,15 @@
         <f t="shared" si="0"/>
         <v>2.4390243902439025E-2</v>
       </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0.4100000000000002</v>
+      </c>
+      <c r="H41">
+        <v>237.48699999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D42">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8287,8 +8574,15 @@
         <f t="shared" si="0"/>
         <v>2.3809523809523808E-2</v>
       </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0.42000000000000021</v>
+      </c>
+      <c r="H42">
+        <v>247.17699999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D43">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8300,8 +8594,15 @@
         <f t="shared" si="0"/>
         <v>2.3255813953488372E-2</v>
       </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>0.43000000000000022</v>
+      </c>
+      <c r="H43">
+        <v>246.19399999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D44">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8313,8 +8614,15 @@
         <f t="shared" si="0"/>
         <v>2.2727272727272728E-2</v>
       </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>0.44000000000000022</v>
+      </c>
+      <c r="H44">
+        <v>262.709</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D45">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8326,8 +8634,15 @@
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0.45000000000000023</v>
+      </c>
+      <c r="H45">
+        <v>229.62299999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D46">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8339,8 +8654,15 @@
         <f t="shared" si="0"/>
         <v>2.1739130434782608E-2</v>
       </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0.46000000000000024</v>
+      </c>
+      <c r="H46">
+        <v>233.76300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D47">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8352,8 +8674,15 @@
         <f t="shared" si="0"/>
         <v>2.1276595744680851E-2</v>
       </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0.47000000000000025</v>
+      </c>
+      <c r="H47">
+        <v>264.81900000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D48">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -8365,8 +8694,15 @@
         <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0.48000000000000026</v>
+      </c>
+      <c r="H48">
+        <v>230.947</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D49">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8378,8 +8714,15 @@
         <f t="shared" si="0"/>
         <v>2.0408163265306121E-2</v>
       </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="H49">
+        <v>260.22500000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D50">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8391,8 +8734,15 @@
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="H50">
+        <v>288.678</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D51">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -8404,8 +8754,15 @@
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0.51000000000000023</v>
+      </c>
+      <c r="H51">
+        <v>222.542</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D52">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -8417,8 +8774,15 @@
         <f t="shared" si="0"/>
         <v>1.9230769230769232E-2</v>
       </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0.52000000000000024</v>
+      </c>
+      <c r="H52">
+        <v>300.55399999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D53">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -8430,8 +8794,15 @@
         <f t="shared" si="0"/>
         <v>1.8867924528301886E-2</v>
       </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>0.53000000000000025</v>
+      </c>
+      <c r="H53">
+        <v>289.73500000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D54">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -8443,8 +8814,15 @@
         <f t="shared" si="0"/>
         <v>1.8518518518518517E-2</v>
       </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>0.54000000000000026</v>
+      </c>
+      <c r="H54">
+        <v>244.91</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D55">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -8456,8 +8834,15 @@
         <f t="shared" si="0"/>
         <v>1.8181818181818181E-2</v>
       </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="H55">
+        <v>235.80199999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D56">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -8469,8 +8854,15 @@
         <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000028</v>
+      </c>
+      <c r="H56">
+        <v>246.13800000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D57">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -8482,8 +8874,15 @@
         <f t="shared" si="0"/>
         <v>1.7543859649122806E-2</v>
       </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="H57">
+        <v>256.64</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D58">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -8495,8 +8894,15 @@
         <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>0.58000000000000029</v>
+      </c>
+      <c r="H58">
+        <v>291.48399999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D59">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8508,8 +8914,15 @@
         <f t="shared" si="0"/>
         <v>1.6949152542372881E-2</v>
       </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>0.5900000000000003</v>
+      </c>
+      <c r="H59">
+        <v>268.976</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D60">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8521,8 +8934,15 @@
         <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="H60">
+        <v>269.74</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D61">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8534,8 +8954,15 @@
         <f t="shared" si="0"/>
         <v>1.6393442622950821E-2</v>
       </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>0.61000000000000032</v>
+      </c>
+      <c r="H61">
+        <v>222.87899999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D62">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8547,8 +8974,15 @@
         <f t="shared" si="0"/>
         <v>1.6129032258064516E-2</v>
       </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>0.62000000000000033</v>
+      </c>
+      <c r="H62">
+        <v>244.31700000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D63">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -8560,8 +8994,15 @@
         <f t="shared" si="0"/>
         <v>1.5873015873015872E-2</v>
       </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>0.63000000000000034</v>
+      </c>
+      <c r="H63">
+        <v>234.46100000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D64">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8573,8 +9014,15 @@
         <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>0.64000000000000035</v>
+      </c>
+      <c r="H64">
+        <v>285.85599999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D65">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -8586,8 +9034,15 @@
         <f t="shared" si="0"/>
         <v>1.5384615384615385E-2</v>
       </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>0.65000000000000036</v>
+      </c>
+      <c r="H65">
+        <v>206.25299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D66">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -8596,450 +9051,1595 @@
         <v>128.19999999999999</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F100" si="2">1/D66</f>
+        <f t="shared" ref="F66:F100" si="3">1/D66</f>
         <v>1.5151515151515152E-2</v>
       </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>0.66000000000000036</v>
+      </c>
+      <c r="H66">
+        <v>346.74799999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D67">
-        <f t="shared" ref="D67:D100" si="3">D66+1</f>
+        <f t="shared" ref="D67:D100" si="4">D66+1</f>
         <v>67</v>
       </c>
       <c r="E67">
         <v>90.385199999999998</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4925373134328358E-2</v>
       </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="5">G66+0.01</f>
+        <v>0.67000000000000037</v>
+      </c>
+      <c r="H67">
+        <v>265.95299999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="E68">
         <v>96.192300000000003</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4705882352941176E-2</v>
       </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0.68000000000000038</v>
+      </c>
+      <c r="H68">
+        <v>336.17599999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="E69">
         <v>96.224400000000003</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4492753623188406E-2</v>
       </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="H69">
+        <v>253.078</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="E70">
         <v>81.743899999999996</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4285714285714285E-2</v>
       </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="H70">
+        <v>251.626</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="E71">
         <v>86.248599999999996</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4084507042253521E-2</v>
       </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="H71">
+        <v>254.31399999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="E72">
         <v>108.56699999999999</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>0.72000000000000042</v>
+      </c>
+      <c r="H72">
+        <v>308.92200000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="E73">
         <v>86.767700000000005</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3698630136986301E-2</v>
       </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="H73">
+        <v>275.53300000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="E74">
         <v>86.368200000000002</v>
       </c>
       <c r="F74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3513513513513514E-2</v>
       </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>0.74000000000000044</v>
+      </c>
+      <c r="H74">
+        <v>245.36</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="E75">
         <v>82.848799999999997</v>
       </c>
       <c r="F75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3333333333333334E-2</v>
       </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>0.75000000000000044</v>
+      </c>
+      <c r="H75">
+        <v>239.197</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="E76">
         <v>86.919300000000007</v>
       </c>
       <c r="F76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3157894736842105E-2</v>
       </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>0.76000000000000045</v>
+      </c>
+      <c r="H76">
+        <v>244.715</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="E77">
         <v>82.512799999999999</v>
       </c>
       <c r="F77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2987012987012988E-2</v>
       </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>0.77000000000000046</v>
+      </c>
+      <c r="H77">
+        <v>231.49799999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="E78">
         <v>89.391599999999997</v>
       </c>
       <c r="F78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.282051282051282E-2</v>
       </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>0.78000000000000047</v>
+      </c>
+      <c r="H78">
+        <v>239.98500000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="E79">
         <v>92.827399999999997</v>
       </c>
       <c r="F79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2658227848101266E-2</v>
       </c>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>0.79000000000000048</v>
+      </c>
+      <c r="H79">
+        <v>219.46600000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="E80">
         <v>83.1387</v>
       </c>
       <c r="F80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="H80">
+        <v>268.53199999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="E81">
         <v>86.083299999999994</v>
       </c>
       <c r="F81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2345679012345678E-2</v>
       </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>0.8100000000000005</v>
+      </c>
+      <c r="H81">
+        <v>263.863</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="E82">
         <v>87.1678</v>
       </c>
       <c r="F82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2195121951219513E-2</v>
       </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>0.82000000000000051</v>
+      </c>
+      <c r="H82">
+        <v>249.857</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="E83">
         <v>92.012699999999995</v>
       </c>
       <c r="F83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2048192771084338E-2</v>
       </c>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>0.83000000000000052</v>
+      </c>
+      <c r="H83">
+        <v>273.416</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="E84">
         <v>81.586799999999997</v>
       </c>
       <c r="F84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1904761904761904E-2</v>
       </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>0.84000000000000052</v>
+      </c>
+      <c r="H84">
+        <v>294.10899999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="E85">
         <v>74.449399999999997</v>
       </c>
       <c r="F85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1764705882352941E-2</v>
       </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>0.85000000000000053</v>
+      </c>
+      <c r="H85">
+        <v>225.10599999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="E86">
         <v>81.707800000000006</v>
       </c>
       <c r="F86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1627906976744186E-2</v>
       </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="H86">
+        <v>208.798</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="E87">
         <v>74.994</v>
       </c>
       <c r="F87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1494252873563218E-2</v>
       </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>0.87000000000000055</v>
+      </c>
+      <c r="H87">
+        <v>266.89999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="E88">
         <v>74.663399999999996</v>
       </c>
       <c r="F88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1363636363636364E-2</v>
       </c>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>0.88000000000000056</v>
+      </c>
+      <c r="H88">
+        <v>249.041</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="E89">
         <v>67.815799999999996</v>
       </c>
       <c r="F89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1235955056179775E-2</v>
       </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="H89">
+        <v>205.01599999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="E90">
         <v>96.306600000000003</v>
       </c>
       <c r="F90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="H90">
+        <v>268.791</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="E91">
         <v>76.437299999999993</v>
       </c>
       <c r="F91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.098901098901099E-2</v>
       </c>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>0.91000000000000059</v>
+      </c>
+      <c r="H91">
+        <v>243.982</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="E92">
         <v>79.530600000000007</v>
       </c>
       <c r="F92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0869565217391304E-2</v>
       </c>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>0.9200000000000006</v>
+      </c>
+      <c r="H92">
+        <v>296.637</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="E93">
         <v>77.465100000000007</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0752688172043012E-2</v>
       </c>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="H93">
+        <v>271.44</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="E94">
         <v>73.881799999999998</v>
       </c>
       <c r="F94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0638297872340425E-2</v>
       </c>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>0.94000000000000061</v>
+      </c>
+      <c r="H94">
+        <v>230.42500000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="E95">
         <v>91.532899999999998</v>
       </c>
       <c r="F95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0526315789473684E-2</v>
       </c>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>0.95000000000000062</v>
+      </c>
+      <c r="H95">
+        <v>257.40800000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="E96">
         <v>73.255499999999998</v>
       </c>
       <c r="F96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000063</v>
+      </c>
+      <c r="H96">
+        <v>276.565</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="E97">
         <v>77.7393</v>
       </c>
       <c r="F97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0309278350515464E-2</v>
       </c>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="H97">
+        <v>233.73099999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="E98">
         <v>66.998599999999996</v>
       </c>
       <c r="F98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.020408163265306E-2</v>
       </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>0.98000000000000065</v>
+      </c>
+      <c r="H98">
+        <v>268.62099999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="E99">
         <v>72.7624</v>
       </c>
       <c r="F99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0101010101010102E-2</v>
       </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>0.99000000000000066</v>
+      </c>
+      <c r="H99">
+        <v>234.624</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="E100">
         <v>72.849999999999994</v>
       </c>
       <c r="F100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.01</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="H100">
+        <v>339.84500000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>1.0100000000000007</v>
+      </c>
+      <c r="H101">
+        <v>296.173</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>1.0200000000000007</v>
+      </c>
+      <c r="H102">
+        <v>238.65100000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>1.0300000000000007</v>
+      </c>
+      <c r="H103">
+        <v>245.81299999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>1.0400000000000007</v>
+      </c>
+      <c r="H104">
+        <v>290.89400000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="H105">
+        <v>285.06200000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>1.0600000000000007</v>
+      </c>
+      <c r="H106">
+        <v>259.50299999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>1.0700000000000007</v>
+      </c>
+      <c r="H107">
+        <v>257.76</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>1.0800000000000007</v>
+      </c>
+      <c r="H108">
+        <v>248.553</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>1.0900000000000007</v>
+      </c>
+      <c r="H109">
+        <v>209.5</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000008</v>
+      </c>
+      <c r="H110">
+        <v>241.46199999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>1.1100000000000008</v>
+      </c>
+      <c r="H111">
+        <v>248.16</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <f t="shared" si="5"/>
+        <v>1.1200000000000008</v>
+      </c>
+      <c r="H112">
+        <v>232.476</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <f t="shared" si="5"/>
+        <v>1.1300000000000008</v>
+      </c>
+      <c r="H113">
+        <v>292.46100000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <f t="shared" si="5"/>
+        <v>1.1400000000000008</v>
+      </c>
+      <c r="H114">
+        <v>269.976</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <f t="shared" si="5"/>
+        <v>1.1500000000000008</v>
+      </c>
+      <c r="H115">
+        <v>287.47199999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>1.1600000000000008</v>
+      </c>
+      <c r="H116">
+        <v>219.81899999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <f t="shared" si="5"/>
+        <v>1.1700000000000008</v>
+      </c>
+      <c r="H117">
+        <v>200.107</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <f t="shared" si="5"/>
+        <v>1.1800000000000008</v>
+      </c>
+      <c r="H118">
+        <v>177.53399999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <f t="shared" si="5"/>
+        <v>1.1900000000000008</v>
+      </c>
+      <c r="H119">
+        <v>285.435</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000008</v>
+      </c>
+      <c r="H120">
+        <v>178.03100000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <f t="shared" si="5"/>
+        <v>1.2100000000000009</v>
+      </c>
+      <c r="H121">
+        <v>215.41399999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <f t="shared" si="5"/>
+        <v>1.2200000000000009</v>
+      </c>
+      <c r="H122">
+        <v>239.185</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <f t="shared" si="5"/>
+        <v>1.2300000000000009</v>
+      </c>
+      <c r="H123">
+        <v>200.208</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <f t="shared" si="5"/>
+        <v>1.2400000000000009</v>
+      </c>
+      <c r="H124">
+        <v>233.36799999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <f t="shared" si="5"/>
+        <v>1.2500000000000009</v>
+      </c>
+      <c r="H125">
+        <v>274.36500000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <f t="shared" si="5"/>
+        <v>1.2600000000000009</v>
+      </c>
+      <c r="H126">
+        <v>255.28100000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <f t="shared" si="5"/>
+        <v>1.2700000000000009</v>
+      </c>
+      <c r="H127">
+        <v>240.24700000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <f t="shared" si="5"/>
+        <v>1.2800000000000009</v>
+      </c>
+      <c r="H128">
+        <v>256.44400000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <f t="shared" si="5"/>
+        <v>1.2900000000000009</v>
+      </c>
+      <c r="H129">
+        <v>268.14600000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <f t="shared" si="5"/>
+        <v>1.3000000000000009</v>
+      </c>
+      <c r="H130">
+        <v>184.506</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="6">G130+0.01</f>
+        <v>1.3100000000000009</v>
+      </c>
+      <c r="H131">
+        <v>369.97699999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <f t="shared" si="6"/>
+        <v>1.320000000000001</v>
+      </c>
+      <c r="H132">
+        <v>282.00400000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <f t="shared" si="6"/>
+        <v>1.330000000000001</v>
+      </c>
+      <c r="H133">
+        <v>202.00299999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <f t="shared" si="6"/>
+        <v>1.340000000000001</v>
+      </c>
+      <c r="H134">
+        <v>214.96299999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <f t="shared" si="6"/>
+        <v>1.350000000000001</v>
+      </c>
+      <c r="H135">
+        <v>233.50800000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <f t="shared" si="6"/>
+        <v>1.360000000000001</v>
+      </c>
+      <c r="H136">
+        <v>278.983</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <f t="shared" si="6"/>
+        <v>1.370000000000001</v>
+      </c>
+      <c r="H137">
+        <v>231.56399999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <f t="shared" si="6"/>
+        <v>1.380000000000001</v>
+      </c>
+      <c r="H138">
+        <v>248.31399999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <f t="shared" si="6"/>
+        <v>1.390000000000001</v>
+      </c>
+      <c r="H139">
+        <v>215.953</v>
+      </c>
+    </row>
+    <row r="140" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <f t="shared" si="6"/>
+        <v>1.400000000000001</v>
+      </c>
+      <c r="H140">
+        <v>262.27699999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <f t="shared" si="6"/>
+        <v>1.410000000000001</v>
+      </c>
+      <c r="H141">
+        <v>274.68200000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <f t="shared" si="6"/>
+        <v>1.420000000000001</v>
+      </c>
+      <c r="H142">
+        <v>229.52199999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <f t="shared" si="6"/>
+        <v>1.430000000000001</v>
+      </c>
+      <c r="H143">
+        <v>243.15299999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <f t="shared" si="6"/>
+        <v>1.4400000000000011</v>
+      </c>
+      <c r="H144">
+        <v>247.31700000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <f t="shared" si="6"/>
+        <v>1.4500000000000011</v>
+      </c>
+      <c r="H145">
+        <v>274.12099999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <f t="shared" si="6"/>
+        <v>1.4600000000000011</v>
+      </c>
+      <c r="H146">
+        <v>223.559</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <f t="shared" si="6"/>
+        <v>1.4700000000000011</v>
+      </c>
+      <c r="H147">
+        <v>246.00399999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <f t="shared" si="6"/>
+        <v>1.4800000000000011</v>
+      </c>
+      <c r="H148">
+        <v>218.02199999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <f t="shared" si="6"/>
+        <v>1.4900000000000011</v>
+      </c>
+      <c r="H149">
+        <v>259.12799999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <f t="shared" si="6"/>
+        <v>1.5000000000000011</v>
+      </c>
+      <c r="H150">
+        <v>260.09500000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <f t="shared" si="6"/>
+        <v>1.5100000000000011</v>
+      </c>
+      <c r="H151">
+        <v>287.05799999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <f t="shared" si="6"/>
+        <v>1.5200000000000011</v>
+      </c>
+      <c r="H152">
+        <v>293.74799999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <f t="shared" si="6"/>
+        <v>1.5300000000000011</v>
+      </c>
+      <c r="H153">
+        <v>229.71600000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G154">
+        <f t="shared" si="6"/>
+        <v>1.5400000000000011</v>
+      </c>
+      <c r="H154">
+        <v>226.654</v>
+      </c>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <f t="shared" si="6"/>
+        <v>1.5500000000000012</v>
+      </c>
+      <c r="H155">
+        <v>338.65300000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <f t="shared" si="6"/>
+        <v>1.5600000000000012</v>
+      </c>
+      <c r="H156">
+        <v>212.61699999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <f t="shared" si="6"/>
+        <v>1.5700000000000012</v>
+      </c>
+      <c r="H157">
+        <v>226.14400000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <f t="shared" si="6"/>
+        <v>1.5800000000000012</v>
+      </c>
+      <c r="H158">
+        <v>252.20599999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <f t="shared" si="6"/>
+        <v>1.5900000000000012</v>
+      </c>
+      <c r="H159">
+        <v>238.81399999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <f t="shared" si="6"/>
+        <v>1.6000000000000012</v>
+      </c>
+      <c r="H160">
+        <v>240.09100000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <f t="shared" si="6"/>
+        <v>1.6100000000000012</v>
+      </c>
+      <c r="H161">
+        <v>251.21600000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G162">
+        <f t="shared" si="6"/>
+        <v>1.6200000000000012</v>
+      </c>
+      <c r="H162">
+        <v>266.916</v>
+      </c>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <f t="shared" si="6"/>
+        <v>1.6300000000000012</v>
+      </c>
+      <c r="H163">
+        <v>182.398</v>
+      </c>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G164">
+        <f t="shared" si="6"/>
+        <v>1.6400000000000012</v>
+      </c>
+      <c r="H164">
+        <v>243.136</v>
+      </c>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <f t="shared" si="6"/>
+        <v>1.6500000000000012</v>
+      </c>
+      <c r="H165">
+        <v>232.04400000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G166">
+        <f t="shared" si="6"/>
+        <v>1.6600000000000013</v>
+      </c>
+      <c r="H166">
+        <v>210.679</v>
+      </c>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G167">
+        <f t="shared" si="6"/>
+        <v>1.6700000000000013</v>
+      </c>
+      <c r="H167">
+        <v>205.59899999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G168">
+        <f t="shared" si="6"/>
+        <v>1.6800000000000013</v>
+      </c>
+      <c r="H168">
+        <v>245.07300000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G169">
+        <f t="shared" si="6"/>
+        <v>1.6900000000000013</v>
+      </c>
+      <c r="H169">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="H170">
+        <v>313.58600000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <f t="shared" si="6"/>
+        <v>1.7100000000000013</v>
+      </c>
+      <c r="H171">
+        <v>217.99600000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <f t="shared" si="6"/>
+        <v>1.7200000000000013</v>
+      </c>
+      <c r="H172">
+        <v>249.61799999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <f t="shared" si="6"/>
+        <v>1.7300000000000013</v>
+      </c>
+      <c r="H173">
+        <v>238.381</v>
+      </c>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <f t="shared" si="6"/>
+        <v>1.7400000000000013</v>
+      </c>
+      <c r="H174">
+        <v>305.54599999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <f t="shared" si="6"/>
+        <v>1.7500000000000013</v>
+      </c>
+      <c r="H175">
+        <v>214.404</v>
+      </c>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <f t="shared" si="6"/>
+        <v>1.7600000000000013</v>
+      </c>
+      <c r="H176">
+        <v>274.71100000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G177">
+        <f t="shared" si="6"/>
+        <v>1.7700000000000014</v>
+      </c>
+      <c r="H177">
+        <v>210.00200000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G178">
+        <f t="shared" si="6"/>
+        <v>1.7800000000000014</v>
+      </c>
+      <c r="H178">
+        <v>212.916</v>
+      </c>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <f t="shared" si="6"/>
+        <v>1.7900000000000014</v>
+      </c>
+      <c r="H179">
+        <v>240.48</v>
+      </c>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <f t="shared" si="6"/>
+        <v>1.8000000000000014</v>
+      </c>
+      <c r="H180">
+        <v>271.75299999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G181">
+        <f t="shared" si="6"/>
+        <v>1.8100000000000014</v>
+      </c>
+      <c r="H181">
+        <v>263.50400000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G182">
+        <f t="shared" si="6"/>
+        <v>1.8200000000000014</v>
+      </c>
+      <c r="H182">
+        <v>256.95999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G183">
+        <f t="shared" si="6"/>
+        <v>1.8300000000000014</v>
+      </c>
+      <c r="H183">
+        <v>245.25200000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G184">
+        <f t="shared" si="6"/>
+        <v>1.8400000000000014</v>
+      </c>
+      <c r="H184">
+        <v>192.167</v>
+      </c>
+    </row>
+    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G185">
+        <f t="shared" si="6"/>
+        <v>1.8500000000000014</v>
+      </c>
+      <c r="H185">
+        <v>214.83500000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <f t="shared" si="6"/>
+        <v>1.8600000000000014</v>
+      </c>
+      <c r="H186">
+        <v>241.04400000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <f t="shared" si="6"/>
+        <v>1.8700000000000014</v>
+      </c>
+      <c r="H187">
+        <v>233.59299999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G188">
+        <f t="shared" si="6"/>
+        <v>1.8800000000000014</v>
+      </c>
+      <c r="H188">
+        <v>220.12899999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G189">
+        <f t="shared" si="6"/>
+        <v>1.8900000000000015</v>
+      </c>
+      <c r="H189">
+        <v>182.44800000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G190">
+        <f t="shared" si="6"/>
+        <v>1.9000000000000015</v>
+      </c>
+      <c r="H190">
+        <v>231.53299999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G191">
+        <f t="shared" si="6"/>
+        <v>1.9100000000000015</v>
+      </c>
+      <c r="H191">
+        <v>202.95699999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G192">
+        <f t="shared" si="6"/>
+        <v>1.9200000000000015</v>
+      </c>
+      <c r="H192">
+        <v>268.18599999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <f t="shared" si="6"/>
+        <v>1.9300000000000015</v>
+      </c>
+      <c r="H193">
+        <v>202.739</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G194">
+        <f t="shared" si="6"/>
+        <v>1.9400000000000015</v>
+      </c>
+      <c r="H194">
+        <v>284.38099999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <f>G194+0.01</f>
+        <v>1.9500000000000015</v>
+      </c>
+      <c r="H195">
+        <v>302.81799999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G196">
+        <f t="shared" ref="G196:G200" si="7">G195+0.01</f>
+        <v>1.9600000000000015</v>
+      </c>
+      <c r="H196">
+        <v>229.114</v>
+      </c>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G197">
+        <f t="shared" si="7"/>
+        <v>1.9700000000000015</v>
+      </c>
+      <c r="H197">
+        <v>192.66399999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <f t="shared" si="7"/>
+        <v>1.9800000000000015</v>
+      </c>
+      <c r="H198">
+        <v>196.68799999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G199">
+        <f t="shared" si="7"/>
+        <v>1.9900000000000015</v>
+      </c>
+      <c r="H199">
+        <v>238.90600000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000013</v>
+      </c>
+      <c r="H200">
+        <v>187.06800000000001</v>
       </c>
     </row>
   </sheetData>

--- a/sensitivity.xlsx
+++ b/sensitivity.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="stretching" sheetId="1" r:id="rId1"/>
+    <sheet name="bending" sheetId="2" r:id="rId2"/>
+    <sheet name="material" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -27,9 +28,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+  <si>
+    <t>95% cotton 5% spandex</t>
+  </si>
+  <si>
+    <t>pink-ribbon-brown</t>
+  </si>
+  <si>
+    <t>100% polyester</t>
+  </si>
+  <si>
+    <t>ivory-rib-knit</t>
+  </si>
+  <si>
+    <t>white-dots-on-blk</t>
+  </si>
+  <si>
+    <t>navy-sparkle-sweat</t>
+  </si>
+  <si>
+    <t>96% polyester 4% spandex</t>
+  </si>
+  <si>
+    <t>camel-ponte-roma</t>
+  </si>
+  <si>
+    <t>60% polyester 40% rayon</t>
+  </si>
+  <si>
+    <t>gray-interlock</t>
+  </si>
+  <si>
+    <t>60% cotton 40% polyester</t>
+  </si>
+  <si>
+    <t>11oz-black-denim</t>
+  </si>
+  <si>
+    <t>99% cotton 1% spandex</t>
+  </si>
+  <si>
+    <t>white-swim-solid</t>
+  </si>
+  <si>
+    <t>87% nylon 13% spandex</t>
+  </si>
+  <si>
+    <t>tango-red-jet-set</t>
+  </si>
+  <si>
+    <t>royal-target</t>
+  </si>
+  <si>
+    <t>65% cotton 35% polyester</t>
+  </si>
+  <si>
+    <t>stretching</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>bending</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>actual displacement</t>
+  </si>
+  <si>
+    <t>estimated parameter</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -41,6 +125,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,10 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,7 +221,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>(Sheet1!$Q:$Q,Sheet1!$L:$L,Sheet1!$G$16:$G$100)</c:f>
+              <c:f>(stretching!$Q:$Q,stretching!$L:$L,stretching!$G$16:$G$100)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2097237"/>
@@ -992,7 +1085,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Sheet1!$P:$P,Sheet1!$K:$K,Sheet1!$F$16:$F$100)</c:f>
+              <c:f>(stretching!$P:$P,stretching!$K:$K,stretching!$F$16:$F$100)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2097237"/>
@@ -1864,11 +1957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547698816"/>
-        <c:axId val="547549504"/>
+        <c:axId val="-1688757936"/>
+        <c:axId val="-1688760240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547698816"/>
+        <c:axId val="-1688757936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,12 +1972,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547549504"/>
+        <c:crossAx val="-1688760240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547549504"/>
+        <c:axId val="-1688760240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1987,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="547698816"/>
+        <c:crossAx val="-1688757936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1948,329 +2041,361 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$F:$F</c:f>
+              <c:f>(bending!$C$5:$C$20,bending!$F$3:$F$100)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>0.909090909090909</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="16">
                   <c:v>0.333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="17">
                   <c:v>0.25</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="18">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="19">
                   <c:v>0.166666666666667</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="20">
                   <c:v>0.142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="21">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="22">
                   <c:v>0.111111111111111</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="23">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="24">
                   <c:v>0.0909090909090909</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="25">
                   <c:v>0.0833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="26">
                   <c:v>0.0769230769230769</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="27">
                   <c:v>0.0714285714285714</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
                   <c:v>0.0666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
                   <c:v>0.0625</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
                   <c:v>0.0588235294117647</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="31">
                   <c:v>0.0555555555555555</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="32">
                   <c:v>0.0526315789473684</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="33">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="34">
                   <c:v>0.0476190476190476</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="35">
                   <c:v>0.0454545454545454</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="36">
                   <c:v>0.0434782608695652</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="37">
                   <c:v>0.0416666666666667</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="38">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="39">
                   <c:v>0.0384615384615385</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="40">
                   <c:v>0.037037037037037</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="41">
                   <c:v>0.0357142857142857</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="42">
                   <c:v>0.0344827586206896</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="43">
                   <c:v>0.0333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="44">
                   <c:v>0.032258064516129</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="45">
                   <c:v>0.03125</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="46">
                   <c:v>0.0303030303030303</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="47">
                   <c:v>0.0294117647058823</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="48">
                   <c:v>0.0285714285714286</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="49">
                   <c:v>0.0277777777777778</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="50">
                   <c:v>0.027027027027027</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="51">
                   <c:v>0.0263157894736842</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="52">
                   <c:v>0.0256410256410256</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="53">
                   <c:v>0.025</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="54">
                   <c:v>0.024390243902439</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="55">
                   <c:v>0.0238095238095238</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="56">
                   <c:v>0.0232558139534884</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="57">
                   <c:v>0.0227272727272727</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="58">
                   <c:v>0.0222222222222222</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="59">
                   <c:v>0.0217391304347826</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="60">
                   <c:v>0.0212765957446808</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="61">
                   <c:v>0.0208333333333333</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="62">
                   <c:v>0.0204081632653061</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="63">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="64">
                   <c:v>0.0196078431372549</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="65">
                   <c:v>0.0192307692307692</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="66">
                   <c:v>0.0188679245283019</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="67">
                   <c:v>0.0185185185185185</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="68">
                   <c:v>0.0181818181818182</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="69">
                   <c:v>0.0178571428571429</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="70">
                   <c:v>0.0175438596491228</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="71">
                   <c:v>0.0172413793103448</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="72">
                   <c:v>0.0169491525423729</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="73">
                   <c:v>0.0166666666666667</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="74">
                   <c:v>0.0163934426229508</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="75">
                   <c:v>0.0161290322580645</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="76">
                   <c:v>0.0158730158730159</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="77">
                   <c:v>0.015625</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="78">
                   <c:v>0.0153846153846154</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="79">
                   <c:v>0.0151515151515151</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="80">
                   <c:v>0.0149253731343284</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="81">
                   <c:v>0.0147058823529412</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="82">
                   <c:v>0.0144927536231884</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="83">
                   <c:v>0.0142857142857143</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="84">
                   <c:v>0.0140845070422535</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="85">
                   <c:v>0.0138888888888889</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="86">
                   <c:v>0.0136986301369863</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="87">
                   <c:v>0.0135135135135135</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="88">
                   <c:v>0.0133333333333333</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="89">
                   <c:v>0.0131578947368421</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="90">
                   <c:v>0.012987012987013</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="91">
                   <c:v>0.0128205128205128</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="92">
                   <c:v>0.0126582278481013</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="93">
                   <c:v>0.0125</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="94">
                   <c:v>0.0123456790123457</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="95">
                   <c:v>0.0121951219512195</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="96">
                   <c:v>0.0120481927710843</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="97">
                   <c:v>0.0119047619047619</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="98">
                   <c:v>0.0117647058823529</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="99">
                   <c:v>0.0116279069767442</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="100">
                   <c:v>0.0114942528735632</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="101">
                   <c:v>0.0113636363636364</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="102">
                   <c:v>0.0112359550561798</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="103">
                   <c:v>0.0111111111111111</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="104">
                   <c:v>0.010989010989011</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="105">
                   <c:v>0.0108695652173913</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="106">
                   <c:v>0.010752688172043</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="107">
                   <c:v>0.0106382978723404</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="108">
                   <c:v>0.0105263157894737</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="109">
                   <c:v>0.0104166666666667</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="110">
                   <c:v>0.0103092783505155</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="111">
                   <c:v>0.0102040816326531</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="112">
                   <c:v>0.0101010101010101</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="113">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2278,314 +2403,356 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$E:$E</c:f>
+              <c:f>(bending!$A$5:$A$20,bending!$E$3:$E$100)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
-                  <c:v>212.68</c:v>
+                  <c:v>275.002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>241.119</c:v>
+                  <c:v>256.941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>256.707</c:v>
+                  <c:v>259.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182.037</c:v>
+                  <c:v>244.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>159.389</c:v>
+                  <c:v>261.707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.011</c:v>
+                  <c:v>244.658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172.439</c:v>
+                  <c:v>257.495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>174.449</c:v>
+                  <c:v>251.017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>174.048</c:v>
+                  <c:v>257.544</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.873</c:v>
+                  <c:v>246.845</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>164.221</c:v>
+                  <c:v>243.723</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>182.333</c:v>
+                  <c:v>248.959</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>149.241</c:v>
+                  <c:v>244.282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>158.676</c:v>
+                  <c:v>232.775</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>133.7</c:v>
+                  <c:v>218.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140.537</c:v>
+                  <c:v>219.216</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131.369</c:v>
+                  <c:v>204.507</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>120.206</c:v>
+                  <c:v>190.026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119.985</c:v>
+                  <c:v>189.216</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111.193</c:v>
+                  <c:v>177.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>128.917</c:v>
+                  <c:v>160.742</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>129.844</c:v>
+                  <c:v>158.81</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>141.992</c:v>
+                  <c:v>149.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>117.658</c:v>
+                  <c:v>144.388</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>143.116</c:v>
+                  <c:v>152.65</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>114.44</c:v>
+                  <c:v>143.749</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.162</c:v>
+                  <c:v>144.473</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>103.873</c:v>
+                  <c:v>133.549</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>113.58</c:v>
+                  <c:v>144.362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>129.321</c:v>
+                  <c:v>128.175</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>125.07</c:v>
+                  <c:v>127.541</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>116.438</c:v>
+                  <c:v>150.767</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>124.459</c:v>
+                  <c:v>125.975</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>110.933</c:v>
+                  <c:v>124.995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>122.247</c:v>
+                  <c:v>127.007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>104.505</c:v>
+                  <c:v>123.998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>96.9705</c:v>
+                  <c:v>118.02</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>98.4215</c:v>
+                  <c:v>121.918</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>109.547</c:v>
+                  <c:v>133.761</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>109.239</c:v>
+                  <c:v>114.358</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>97.5613</c:v>
+                  <c:v>114.008</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>108.886</c:v>
+                  <c:v>119.782</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>99.2047</c:v>
+                  <c:v>126.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>98.7005</c:v>
+                  <c:v>129.282</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>104.269</c:v>
+                  <c:v>111.623</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>101.545</c:v>
+                  <c:v>114.434</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>106.668</c:v>
+                  <c:v>109.291</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>100.525</c:v>
+                  <c:v>111.775</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>105.731</c:v>
+                  <c:v>104.196</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>101.04</c:v>
+                  <c:v>106.104</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>117.822</c:v>
+                  <c:v>106.432</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>100.416</c:v>
+                  <c:v>105.904</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>92.0661</c:v>
+                  <c:v>104.239</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>94.7802</c:v>
+                  <c:v>106.817</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>100.503</c:v>
+                  <c:v>107.532</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>93.4421</c:v>
+                  <c:v>103.108</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>92.60599999999999</c:v>
+                  <c:v>101.52</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>80.56270000000001</c:v>
+                  <c:v>110.538</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>80.202</c:v>
+                  <c:v>102.648</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>83.10939999999999</c:v>
+                  <c:v>98.784</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>101.215</c:v>
+                  <c:v>104.827</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>86.2293</c:v>
+                  <c:v>100.157</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>82.9209</c:v>
+                  <c:v>98.3623</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>90.4377</c:v>
+                  <c:v>101.843</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98.3626</c:v>
+                  <c:v>98.0438</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>128.2</c:v>
+                  <c:v>105.343</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>90.3852</c:v>
+                  <c:v>98.3563</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>96.1923</c:v>
+                  <c:v>100.22</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>96.2244</c:v>
+                  <c:v>91.36879999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.7439</c:v>
+                  <c:v>101.786</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>86.2486</c:v>
+                  <c:v>101.434</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>108.567</c:v>
+                  <c:v>92.4333</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>86.7677</c:v>
+                  <c:v>95.7433</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.3682</c:v>
+                  <c:v>103.94</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>82.8488</c:v>
+                  <c:v>98.6705</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>86.9193</c:v>
+                  <c:v>87.5853</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>82.5128</c:v>
+                  <c:v>88.9778</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>89.3916</c:v>
+                  <c:v>92.7042</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>92.8274</c:v>
+                  <c:v>83.67659999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>83.1387</c:v>
+                  <c:v>95.8724</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>86.0833</c:v>
+                  <c:v>93.1471</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>87.1678</c:v>
+                  <c:v>89.37869999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>92.0127</c:v>
+                  <c:v>82.3158</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>81.5868</c:v>
+                  <c:v>95.8385</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>74.4494</c:v>
+                  <c:v>89.1386</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>81.7078</c:v>
+                  <c:v>89.6315</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>74.994</c:v>
+                  <c:v>91.1669</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>74.6634</c:v>
+                  <c:v>90.6728</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>67.8158</c:v>
+                  <c:v>94.2748</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>96.3066</c:v>
+                  <c:v>80.7648</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>76.4373</c:v>
+                  <c:v>82.2715</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>79.5306</c:v>
+                  <c:v>79.13379999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>77.4651</c:v>
+                  <c:v>90.6331</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>73.8818</c:v>
+                  <c:v>79.8028</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>91.5329</c:v>
+                  <c:v>81.0519</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>73.2555</c:v>
+                  <c:v>81.7625</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>77.7393</c:v>
+                  <c:v>86.7881</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>66.9986</c:v>
+                  <c:v>86.972</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>72.7624</c:v>
+                  <c:v>89.6725</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>72.85</c:v>
+                  <c:v>84.2734</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>80.6831</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>87.7585</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>83.1729</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>79.38509999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>75.5746</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>80.938</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>86.7059</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>80.4415</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>78.0503</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>70.5272</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>80.2497</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>78.5413</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>69.3382</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>81.096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2595,11 +2762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="451404672"/>
-        <c:axId val="451407152"/>
+        <c:axId val="-1580090208"/>
+        <c:axId val="-1580087456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="451404672"/>
+        <c:axId val="-1580090208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,12 +2776,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451407152"/>
+        <c:crossAx val="-1580087456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="451407152"/>
+        <c:axId val="-1580087456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2791,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="451404672"/>
+        <c:crossAx val="-1580090208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2656,15 +2823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2690,16 +2857,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7736,2910 +7903,1530 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:H200"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K200" sqref="K200"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>317.15800000000002</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <f>1/B1</f>
+        <v>10</v>
+      </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>212.68</v>
+        <v>265.72500000000002</v>
       </c>
       <c r="F1">
         <f>1/D1</f>
         <v>1</v>
       </c>
-      <c r="G1">
-        <v>0.01</v>
-      </c>
-      <c r="H1">
-        <v>326.81400000000002</v>
-      </c>
-    </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>258.83199999999999</v>
+      </c>
+      <c r="B2">
+        <f>0.1+B1</f>
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C20" si="0">1/B2</f>
+        <v>5</v>
+      </c>
       <c r="D2">
         <f>D1+1</f>
         <v>2</v>
       </c>
       <c r="E2">
-        <v>241.119</v>
+        <v>217.89599999999999</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F65" si="0">1/D2</f>
+        <f t="shared" ref="F2:F65" si="1">1/D2</f>
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <f>G1+0.01</f>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>261.673</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B20" si="2">0.1+B2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="3">D2+1</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>204.50700000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>262.048</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>190.02600000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>275.00200000000001</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>189.21600000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>256.94099999999997</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>177.05</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>259.49</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>160.74199999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>244.07</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>158.81</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>261.70699999999999</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>149.84</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>244.65799999999999</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>144.38800000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>257.495</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>152.65</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>251.017</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>143.749</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>257.54399999999998</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>144.47300000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>246.845</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.71428571428571419</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>133.54900000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>243.72300000000001</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>144.36199999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>248.959</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>128.17500000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>244.28200000000001</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>127.541</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>232.77500000000001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555536</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>150.767</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>218.62</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368407</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>125.97499999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>219.21600000000001</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>124.995</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>127.00700000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>123.998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>118.02</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>121.91800000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>133.761</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>114.358</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>114.008</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>119.782</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>126.5</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>129.28200000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>111.623</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>114.434</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>109.291</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>111.77500000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>104.196</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>106.104</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>106.432</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>105.904</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>104.239</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>106.81699999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>107.532</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>103.108</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>101.52</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>110.538</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>2.2727272727272728E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>102.648</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>98.784000000000006</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <v>104.827</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>2.1276595744680851E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>100.157</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>98.362300000000005</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>101.843</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="H2">
-        <v>356.69299999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">D2+1</f>
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>256.70699999999999</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="2">G2+0.01</f>
-        <v>0.03</v>
-      </c>
-      <c r="H3">
-        <v>410.26499999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>182.03700000000001</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="H4">
-        <v>286.685</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>159.38900000000001</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="H5">
-        <v>301.85599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>167.011</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="H6">
-        <v>266.22800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>172.43899999999999</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H7">
-        <v>281.09899999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>174.44900000000001</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-      <c r="H8">
-        <v>293.39699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>174.048</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="H9">
-        <v>304.18400000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>130.87299999999999</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="H10">
-        <v>320.15899999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>164.221</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="H11">
-        <v>297.78899999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>182.333</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>0.11999999999999998</v>
-      </c>
-      <c r="H12">
-        <v>261.21699999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>149.24100000000001</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>0.12999999999999998</v>
-      </c>
-      <c r="H13">
-        <v>334.37099999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>158.67599999999999</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="H14">
-        <v>247.69499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>133.69999999999999</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="H15">
-        <v>245.387</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>140.53700000000001</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
-      </c>
-      <c r="H16">
-        <v>310.66500000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>131.369</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0.17</v>
-      </c>
-      <c r="H17">
-        <v>242.745</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>120.206</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="H18">
-        <v>448.423</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>119.985</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="H19">
-        <v>278.863</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>111.193</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="H20">
-        <v>272.73500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>128.917</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>0.21000000000000005</v>
-      </c>
-      <c r="H21">
-        <v>304.72800000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>129.84399999999999</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>0.22000000000000006</v>
-      </c>
-      <c r="H22">
-        <v>242.66399999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>141.99199999999999</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>0.23000000000000007</v>
-      </c>
-      <c r="H23">
-        <v>254.39599999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>117.658</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>0.24000000000000007</v>
-      </c>
-      <c r="H24">
-        <v>257.97500000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>143.11600000000001</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="H25">
-        <v>300.91500000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="E26">
-        <v>114.44</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>0.26000000000000006</v>
-      </c>
-      <c r="H26">
-        <v>273.8</v>
-      </c>
-    </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>116.16200000000001</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>0.27000000000000007</v>
-      </c>
-      <c r="H27">
-        <v>296.19799999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>103.873</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285712E-2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>0.28000000000000008</v>
-      </c>
-      <c r="H28">
-        <v>297.322</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="E29">
-        <v>113.58</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>0.29000000000000009</v>
-      </c>
-      <c r="H29">
-        <v>244.86699999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E30">
-        <v>129.321</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>0.3000000000000001</v>
-      </c>
-      <c r="H30">
-        <v>284.77100000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>125.07</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>0.31000000000000011</v>
-      </c>
-      <c r="H31">
-        <v>307.49400000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="E32">
-        <v>116.438</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="2"/>
-        <v>0.32000000000000012</v>
-      </c>
-      <c r="H32">
-        <v>359.45699999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="E33">
-        <v>124.459</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="2"/>
-        <v>0.33000000000000013</v>
-      </c>
-      <c r="H33">
-        <v>255.928</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="E34">
-        <v>110.93300000000001</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="2"/>
-        <v>0.34000000000000014</v>
-      </c>
-      <c r="H34">
-        <v>302.28300000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="E35">
-        <v>122.247</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="2"/>
-        <v>0.35000000000000014</v>
-      </c>
-      <c r="H35">
-        <v>236.75700000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>104.505</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>0.36000000000000015</v>
-      </c>
-      <c r="H36">
-        <v>268.935</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="E37">
-        <v>96.970500000000001</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>0.37000000000000016</v>
-      </c>
-      <c r="H37">
-        <v>269.20299999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="E38">
-        <v>98.421499999999995</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>0.38000000000000017</v>
-      </c>
-      <c r="H38">
-        <v>220.554</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="E39">
-        <v>109.547</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>0.39000000000000018</v>
-      </c>
-      <c r="H39">
-        <v>230.321</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="E40">
-        <v>109.239</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000019</v>
-      </c>
-      <c r="H40">
-        <v>275.012</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="E41">
-        <v>97.561300000000003</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>0.4100000000000002</v>
-      </c>
-      <c r="H41">
-        <v>237.48699999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="E42">
-        <v>108.886</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>2.3809523809523808E-2</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>0.42000000000000021</v>
-      </c>
-      <c r="H42">
-        <v>247.17699999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="E43">
-        <v>99.204700000000003</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>2.3255813953488372E-2</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>0.43000000000000022</v>
-      </c>
-      <c r="H43">
-        <v>246.19399999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="E44">
-        <v>98.700500000000005</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>2.2727272727272728E-2</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>0.44000000000000022</v>
-      </c>
-      <c r="H44">
-        <v>262.709</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="E45">
-        <v>104.26900000000001</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>0.45000000000000023</v>
-      </c>
-      <c r="H45">
-        <v>229.62299999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="E46">
-        <v>101.545</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>2.1739130434782608E-2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>0.46000000000000024</v>
-      </c>
-      <c r="H46">
-        <v>233.76300000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="E47">
-        <v>106.66800000000001</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>2.1276595744680851E-2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>0.47000000000000025</v>
-      </c>
-      <c r="H47">
-        <v>264.81900000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="E48">
-        <v>100.52500000000001</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>0.48000000000000026</v>
-      </c>
-      <c r="H48">
-        <v>230.947</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="E49">
-        <v>105.73099999999999</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>0.49000000000000027</v>
-      </c>
-      <c r="H49">
-        <v>260.22500000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="E50">
-        <v>101.04</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>0.50000000000000022</v>
-      </c>
-      <c r="H50">
-        <v>288.678</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="E51">
-        <v>117.822</v>
+        <v>98.043800000000005</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>0.51000000000000023</v>
-      </c>
-      <c r="H51">
-        <v>222.542</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="E52">
-        <v>100.416</v>
+        <v>105.343</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>0.52000000000000024</v>
-      </c>
-      <c r="H52">
-        <v>300.55399999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="E53">
-        <v>92.066100000000006</v>
+        <v>98.356300000000005</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8867924528301886E-2</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>0.53000000000000025</v>
-      </c>
-      <c r="H53">
-        <v>289.73500000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="E54">
-        <v>94.780199999999994</v>
+        <v>100.22</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8518518518518517E-2</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>0.54000000000000026</v>
-      </c>
-      <c r="H54">
-        <v>244.91</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="E55">
-        <v>100.503</v>
+        <v>91.368799999999993</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000027</v>
-      </c>
-      <c r="H55">
-        <v>235.80199999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="E56">
-        <v>93.442099999999996</v>
+        <v>101.786</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7857142857142856E-2</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>0.56000000000000028</v>
-      </c>
-      <c r="H56">
-        <v>246.13800000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="E57">
-        <v>92.605999999999995</v>
+        <v>101.434</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7543859649122806E-2</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>0.57000000000000028</v>
-      </c>
-      <c r="H57">
-        <v>256.64</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="E58">
-        <v>80.562700000000007</v>
+        <v>92.433300000000003</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>0.58000000000000029</v>
-      </c>
-      <c r="H58">
-        <v>291.48399999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="E59">
-        <v>80.201999999999998</v>
+        <v>95.743300000000005</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>0.5900000000000003</v>
-      </c>
-      <c r="H59">
-        <v>268.976</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E60">
-        <v>83.109399999999994</v>
+        <v>103.94</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000031</v>
-      </c>
-      <c r="H60">
-        <v>269.74</v>
-      </c>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="E61">
-        <v>101.215</v>
+        <v>98.670500000000004</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6393442622950821E-2</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>0.61000000000000032</v>
-      </c>
-      <c r="H61">
-        <v>222.87899999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="E62">
-        <v>86.229299999999995</v>
+        <v>87.585300000000004</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>0.62000000000000033</v>
-      </c>
-      <c r="H62">
-        <v>244.31700000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="E63">
-        <v>82.920900000000003</v>
+        <v>88.977800000000002</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5873015873015872E-2</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>0.63000000000000034</v>
-      </c>
-      <c r="H63">
-        <v>234.46100000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="E64">
-        <v>90.437700000000007</v>
+        <v>92.7042</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>0.64000000000000035</v>
-      </c>
-      <c r="H64">
-        <v>285.85599999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="E65">
-        <v>98.3626</v>
+        <v>83.676599999999993</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>0.65000000000000036</v>
-      </c>
-      <c r="H65">
-        <v>206.25299999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="E66">
-        <v>128.19999999999999</v>
+        <v>95.872399999999999</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F100" si="3">1/D66</f>
+        <f t="shared" ref="F66:F100" si="4">1/D66</f>
         <v>1.5151515151515152E-2</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>0.66000000000000036</v>
-      </c>
-      <c r="H66">
-        <v>346.74799999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D67">
-        <f t="shared" ref="D67:D100" si="4">D66+1</f>
+        <f t="shared" ref="D67:D100" si="5">D66+1</f>
         <v>67</v>
       </c>
       <c r="E67">
-        <v>90.385199999999998</v>
+        <v>93.147099999999995</v>
       </c>
       <c r="F67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4925373134328358E-2</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G130" si="5">G66+0.01</f>
-        <v>0.67000000000000037</v>
-      </c>
-      <c r="H67">
-        <v>265.95299999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D68">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <v>89.378699999999995</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="E68">
-        <v>96.192300000000003</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="3"/>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="G68">
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D69">
         <f t="shared" si="5"/>
-        <v>0.68000000000000038</v>
-      </c>
-      <c r="H68">
-        <v>336.17599999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D69">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>82.315799999999996</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-      <c r="E69">
-        <v>96.224400000000003</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="3"/>
         <v>1.4492753623188406E-2</v>
       </c>
-      <c r="G69">
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D70">
         <f t="shared" si="5"/>
-        <v>0.69000000000000039</v>
-      </c>
-      <c r="H69">
-        <v>253.078</v>
-      </c>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D70">
+        <v>70</v>
+      </c>
+      <c r="E70">
+        <v>95.838499999999996</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="E70">
-        <v>81.743899999999996</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="G70">
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D71">
         <f t="shared" si="5"/>
-        <v>0.7000000000000004</v>
-      </c>
-      <c r="H70">
-        <v>251.626</v>
-      </c>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D71">
+        <v>71</v>
+      </c>
+      <c r="E71">
+        <v>89.138599999999997</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="4"/>
-        <v>71</v>
-      </c>
-      <c r="E71">
-        <v>86.248599999999996</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
         <v>1.4084507042253521E-2</v>
       </c>
-      <c r="G71">
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D72">
         <f t="shared" si="5"/>
-        <v>0.71000000000000041</v>
-      </c>
-      <c r="H71">
-        <v>254.31399999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D72">
+        <v>72</v>
+      </c>
+      <c r="E72">
+        <v>89.631500000000003</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="E72">
-        <v>108.56699999999999</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="G72">
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D73">
         <f t="shared" si="5"/>
-        <v>0.72000000000000042</v>
-      </c>
-      <c r="H72">
-        <v>308.92200000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D73">
+        <v>73</v>
+      </c>
+      <c r="E73">
+        <v>91.166899999999998</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-      <c r="E73">
-        <v>86.767700000000005</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="3"/>
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="G73">
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D74">
         <f t="shared" si="5"/>
-        <v>0.73000000000000043</v>
-      </c>
-      <c r="H73">
-        <v>275.53300000000002</v>
-      </c>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D74">
+        <v>74</v>
+      </c>
+      <c r="E74">
+        <v>90.672799999999995</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="4"/>
-        <v>74</v>
-      </c>
-      <c r="E74">
-        <v>86.368200000000002</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="3"/>
         <v>1.3513513513513514E-2</v>
       </c>
-      <c r="G74">
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D75">
         <f t="shared" si="5"/>
-        <v>0.74000000000000044</v>
-      </c>
-      <c r="H74">
-        <v>245.36</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D75">
+        <v>75</v>
+      </c>
+      <c r="E75">
+        <v>94.274799999999999</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="E75">
-        <v>82.848799999999997</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="3"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="G75">
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D76">
         <f t="shared" si="5"/>
-        <v>0.75000000000000044</v>
-      </c>
-      <c r="H75">
-        <v>239.197</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D76">
+        <v>76</v>
+      </c>
+      <c r="E76">
+        <v>80.764799999999994</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="4"/>
-        <v>76</v>
-      </c>
-      <c r="E76">
-        <v>86.919300000000007</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="3"/>
         <v>1.3157894736842105E-2</v>
       </c>
-      <c r="G76">
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D77">
         <f t="shared" si="5"/>
-        <v>0.76000000000000045</v>
-      </c>
-      <c r="H76">
-        <v>244.715</v>
-      </c>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D77">
+        <v>77</v>
+      </c>
+      <c r="E77">
+        <v>82.271500000000003</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="4"/>
-        <v>77</v>
-      </c>
-      <c r="E77">
-        <v>82.512799999999999</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="3"/>
         <v>1.2987012987012988E-2</v>
       </c>
-      <c r="G77">
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D78">
         <f t="shared" si="5"/>
-        <v>0.77000000000000046</v>
-      </c>
-      <c r="H77">
-        <v>231.49799999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D78">
+        <v>78</v>
+      </c>
+      <c r="E78">
+        <v>79.133799999999994</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="4"/>
-        <v>78</v>
-      </c>
-      <c r="E78">
-        <v>89.391599999999997</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="3"/>
         <v>1.282051282051282E-2</v>
       </c>
-      <c r="G78">
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D79">
         <f t="shared" si="5"/>
-        <v>0.78000000000000047</v>
-      </c>
-      <c r="H78">
-        <v>239.98500000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D79">
+        <v>79</v>
+      </c>
+      <c r="E79">
+        <v>90.633099999999999</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="E79">
-        <v>92.827399999999997</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="3"/>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="G79">
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D80">
         <f t="shared" si="5"/>
-        <v>0.79000000000000048</v>
-      </c>
-      <c r="H79">
-        <v>219.46600000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D80">
+        <v>80</v>
+      </c>
+      <c r="E80">
+        <v>79.802800000000005</v>
+      </c>
+      <c r="F80">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="E80">
-        <v>83.1387</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G80">
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D81">
         <f t="shared" si="5"/>
-        <v>0.80000000000000049</v>
-      </c>
-      <c r="H80">
-        <v>268.53199999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D81">
+        <v>81</v>
+      </c>
+      <c r="E81">
+        <v>81.051900000000003</v>
+      </c>
+      <c r="F81">
         <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="E81">
-        <v>86.083299999999994</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="3"/>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="G81">
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D82">
         <f t="shared" si="5"/>
-        <v>0.8100000000000005</v>
-      </c>
-      <c r="H81">
-        <v>263.863</v>
-      </c>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D82">
+        <v>82</v>
+      </c>
+      <c r="E82">
+        <v>81.762500000000003</v>
+      </c>
+      <c r="F82">
         <f t="shared" si="4"/>
-        <v>82</v>
-      </c>
-      <c r="E82">
-        <v>87.1678</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="3"/>
         <v>1.2195121951219513E-2</v>
       </c>
-      <c r="G82">
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D83">
         <f t="shared" si="5"/>
-        <v>0.82000000000000051</v>
-      </c>
-      <c r="H82">
-        <v>249.857</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D83">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <v>86.7881</v>
+      </c>
+      <c r="F83">
         <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-      <c r="E83">
-        <v>92.012699999999995</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="3"/>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="G83">
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D84">
         <f t="shared" si="5"/>
-        <v>0.83000000000000052</v>
-      </c>
-      <c r="H83">
-        <v>273.416</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D84">
+        <v>84</v>
+      </c>
+      <c r="E84">
+        <v>86.971999999999994</v>
+      </c>
+      <c r="F84">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="E84">
-        <v>81.586799999999997</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="3"/>
         <v>1.1904761904761904E-2</v>
       </c>
-      <c r="G84">
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D85">
         <f t="shared" si="5"/>
-        <v>0.84000000000000052</v>
-      </c>
-      <c r="H84">
-        <v>294.10899999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D85">
+        <v>85</v>
+      </c>
+      <c r="E85">
+        <v>89.672499999999999</v>
+      </c>
+      <c r="F85">
         <f t="shared" si="4"/>
-        <v>85</v>
-      </c>
-      <c r="E85">
-        <v>74.449399999999997</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="3"/>
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="G85">
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D86">
         <f t="shared" si="5"/>
-        <v>0.85000000000000053</v>
-      </c>
-      <c r="H85">
-        <v>225.10599999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D86">
+        <v>86</v>
+      </c>
+      <c r="E86">
+        <v>84.273399999999995</v>
+      </c>
+      <c r="F86">
         <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="E86">
-        <v>81.707800000000006</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="3"/>
         <v>1.1627906976744186E-2</v>
       </c>
-      <c r="G86">
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D87">
         <f t="shared" si="5"/>
-        <v>0.86000000000000054</v>
-      </c>
-      <c r="H86">
-        <v>208.798</v>
-      </c>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D87">
+        <v>87</v>
+      </c>
+      <c r="E87">
+        <v>80.683099999999996</v>
+      </c>
+      <c r="F87">
         <f t="shared" si="4"/>
-        <v>87</v>
-      </c>
-      <c r="E87">
-        <v>74.994</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="3"/>
         <v>1.1494252873563218E-2</v>
       </c>
-      <c r="G87">
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D88">
         <f t="shared" si="5"/>
-        <v>0.87000000000000055</v>
-      </c>
-      <c r="H87">
-        <v>266.89999999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D88">
+        <v>88</v>
+      </c>
+      <c r="E88">
+        <v>87.758499999999998</v>
+      </c>
+      <c r="F88">
         <f t="shared" si="4"/>
-        <v>88</v>
-      </c>
-      <c r="E88">
-        <v>74.663399999999996</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="3"/>
         <v>1.1363636363636364E-2</v>
       </c>
-      <c r="G88">
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D89">
         <f t="shared" si="5"/>
-        <v>0.88000000000000056</v>
-      </c>
-      <c r="H88">
-        <v>249.041</v>
-      </c>
-    </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D89">
+        <v>89</v>
+      </c>
+      <c r="E89">
+        <v>83.172899999999998</v>
+      </c>
+      <c r="F89">
         <f t="shared" si="4"/>
-        <v>89</v>
-      </c>
-      <c r="E89">
-        <v>67.815799999999996</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="3"/>
         <v>1.1235955056179775E-2</v>
       </c>
-      <c r="G89">
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D90">
         <f t="shared" si="5"/>
-        <v>0.89000000000000057</v>
-      </c>
-      <c r="H89">
-        <v>205.01599999999999</v>
-      </c>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D90">
+        <v>90</v>
+      </c>
+      <c r="E90">
+        <v>79.385099999999994</v>
+      </c>
+      <c r="F90">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="E90">
-        <v>96.306600000000003</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="3"/>
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="G90">
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D91">
         <f t="shared" si="5"/>
-        <v>0.90000000000000058</v>
-      </c>
-      <c r="H90">
-        <v>268.791</v>
-      </c>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D91">
+        <v>91</v>
+      </c>
+      <c r="E91">
+        <v>75.574600000000004</v>
+      </c>
+      <c r="F91">
         <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="E91">
-        <v>76.437299999999993</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="3"/>
         <v>1.098901098901099E-2</v>
       </c>
-      <c r="G91">
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D92">
         <f t="shared" si="5"/>
-        <v>0.91000000000000059</v>
-      </c>
-      <c r="H91">
-        <v>243.982</v>
-      </c>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D92">
+        <v>92</v>
+      </c>
+      <c r="E92">
+        <v>80.938000000000002</v>
+      </c>
+      <c r="F92">
         <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-      <c r="E92">
-        <v>79.530600000000007</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="3"/>
         <v>1.0869565217391304E-2</v>
       </c>
-      <c r="G92">
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D93">
         <f t="shared" si="5"/>
-        <v>0.9200000000000006</v>
-      </c>
-      <c r="H92">
-        <v>296.637</v>
-      </c>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D93">
+        <v>93</v>
+      </c>
+      <c r="E93">
+        <v>86.7059</v>
+      </c>
+      <c r="F93">
         <f t="shared" si="4"/>
-        <v>93</v>
-      </c>
-      <c r="E93">
-        <v>77.465100000000007</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="3"/>
         <v>1.0752688172043012E-2</v>
       </c>
-      <c r="G93">
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D94">
         <f t="shared" si="5"/>
-        <v>0.9300000000000006</v>
-      </c>
-      <c r="H93">
-        <v>271.44</v>
-      </c>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D94">
+        <v>94</v>
+      </c>
+      <c r="E94">
+        <v>80.441500000000005</v>
+      </c>
+      <c r="F94">
         <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="E94">
-        <v>73.881799999999998</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="3"/>
         <v>1.0638297872340425E-2</v>
       </c>
-      <c r="G94">
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D95">
         <f t="shared" si="5"/>
-        <v>0.94000000000000061</v>
-      </c>
-      <c r="H94">
-        <v>230.42500000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D95">
+        <v>95</v>
+      </c>
+      <c r="E95">
+        <v>78.050299999999993</v>
+      </c>
+      <c r="F95">
         <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="E95">
-        <v>91.532899999999998</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="3"/>
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="G95">
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D96">
         <f t="shared" si="5"/>
-        <v>0.95000000000000062</v>
-      </c>
-      <c r="H95">
-        <v>257.40800000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D96">
+        <v>96</v>
+      </c>
+      <c r="E96">
+        <v>70.527199999999993</v>
+      </c>
+      <c r="F96">
         <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="E96">
-        <v>73.255499999999998</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="3"/>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="G96">
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D97">
         <f t="shared" si="5"/>
-        <v>0.96000000000000063</v>
-      </c>
-      <c r="H96">
-        <v>276.565</v>
-      </c>
-    </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D97">
+        <v>97</v>
+      </c>
+      <c r="E97">
+        <v>80.249700000000004</v>
+      </c>
+      <c r="F97">
         <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="E97">
-        <v>77.7393</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="3"/>
         <v>1.0309278350515464E-2</v>
       </c>
-      <c r="G97">
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D98">
         <f t="shared" si="5"/>
-        <v>0.97000000000000064</v>
-      </c>
-      <c r="H97">
-        <v>233.73099999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D98">
+        <v>98</v>
+      </c>
+      <c r="E98">
+        <v>78.541300000000007</v>
+      </c>
+      <c r="F98">
         <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="E98">
-        <v>66.998599999999996</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="3"/>
         <v>1.020408163265306E-2</v>
       </c>
-      <c r="G98">
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D99">
         <f t="shared" si="5"/>
-        <v>0.98000000000000065</v>
-      </c>
-      <c r="H98">
-        <v>268.62099999999998</v>
-      </c>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D99">
+        <v>99</v>
+      </c>
+      <c r="E99">
+        <v>69.338200000000001</v>
+      </c>
+      <c r="F99">
         <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="E99">
-        <v>72.7624</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="3"/>
         <v>1.0101010101010102E-2</v>
       </c>
-      <c r="G99">
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D100">
         <f t="shared" si="5"/>
-        <v>0.99000000000000066</v>
-      </c>
-      <c r="H99">
-        <v>234.624</v>
-      </c>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <v>81.096000000000004</v>
+      </c>
+      <c r="F100">
         <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="E100">
-        <v>72.849999999999994</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="3"/>
         <v>0.01</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="5"/>
-        <v>1.0000000000000007</v>
-      </c>
-      <c r="H100">
-        <v>339.84500000000003</v>
-      </c>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G101">
-        <f t="shared" si="5"/>
-        <v>1.0100000000000007</v>
-      </c>
-      <c r="H101">
-        <v>296.173</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G102">
-        <f t="shared" si="5"/>
-        <v>1.0200000000000007</v>
-      </c>
-      <c r="H102">
-        <v>238.65100000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G103">
-        <f t="shared" si="5"/>
-        <v>1.0300000000000007</v>
-      </c>
-      <c r="H103">
-        <v>245.81299999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G104">
-        <f t="shared" si="5"/>
-        <v>1.0400000000000007</v>
-      </c>
-      <c r="H104">
-        <v>290.89400000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G105">
-        <f t="shared" si="5"/>
-        <v>1.0500000000000007</v>
-      </c>
-      <c r="H105">
-        <v>285.06200000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G106">
-        <f t="shared" si="5"/>
-        <v>1.0600000000000007</v>
-      </c>
-      <c r="H106">
-        <v>259.50299999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G107">
-        <f t="shared" si="5"/>
-        <v>1.0700000000000007</v>
-      </c>
-      <c r="H107">
-        <v>257.76</v>
-      </c>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G108">
-        <f t="shared" si="5"/>
-        <v>1.0800000000000007</v>
-      </c>
-      <c r="H108">
-        <v>248.553</v>
-      </c>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G109">
-        <f t="shared" si="5"/>
-        <v>1.0900000000000007</v>
-      </c>
-      <c r="H109">
-        <v>209.5</v>
-      </c>
-    </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G110">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000008</v>
-      </c>
-      <c r="H110">
-        <v>241.46199999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G111">
-        <f t="shared" si="5"/>
-        <v>1.1100000000000008</v>
-      </c>
-      <c r="H111">
-        <v>248.16</v>
-      </c>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G112">
-        <f t="shared" si="5"/>
-        <v>1.1200000000000008</v>
-      </c>
-      <c r="H112">
-        <v>232.476</v>
-      </c>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G113">
-        <f t="shared" si="5"/>
-        <v>1.1300000000000008</v>
-      </c>
-      <c r="H113">
-        <v>292.46100000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G114">
-        <f t="shared" si="5"/>
-        <v>1.1400000000000008</v>
-      </c>
-      <c r="H114">
-        <v>269.976</v>
-      </c>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G115">
-        <f t="shared" si="5"/>
-        <v>1.1500000000000008</v>
-      </c>
-      <c r="H115">
-        <v>287.47199999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G116">
-        <f t="shared" si="5"/>
-        <v>1.1600000000000008</v>
-      </c>
-      <c r="H116">
-        <v>219.81899999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G117">
-        <f t="shared" si="5"/>
-        <v>1.1700000000000008</v>
-      </c>
-      <c r="H117">
-        <v>200.107</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G118">
-        <f t="shared" si="5"/>
-        <v>1.1800000000000008</v>
-      </c>
-      <c r="H118">
-        <v>177.53399999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G119">
-        <f t="shared" si="5"/>
-        <v>1.1900000000000008</v>
-      </c>
-      <c r="H119">
-        <v>285.435</v>
-      </c>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G120">
-        <f t="shared" si="5"/>
-        <v>1.2000000000000008</v>
-      </c>
-      <c r="H120">
-        <v>178.03100000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G121">
-        <f t="shared" si="5"/>
-        <v>1.2100000000000009</v>
-      </c>
-      <c r="H121">
-        <v>215.41399999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G122">
-        <f t="shared" si="5"/>
-        <v>1.2200000000000009</v>
-      </c>
-      <c r="H122">
-        <v>239.185</v>
-      </c>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G123">
-        <f t="shared" si="5"/>
-        <v>1.2300000000000009</v>
-      </c>
-      <c r="H123">
-        <v>200.208</v>
-      </c>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G124">
-        <f t="shared" si="5"/>
-        <v>1.2400000000000009</v>
-      </c>
-      <c r="H124">
-        <v>233.36799999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G125">
-        <f t="shared" si="5"/>
-        <v>1.2500000000000009</v>
-      </c>
-      <c r="H125">
-        <v>274.36500000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G126">
-        <f t="shared" si="5"/>
-        <v>1.2600000000000009</v>
-      </c>
-      <c r="H126">
-        <v>255.28100000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G127">
-        <f t="shared" si="5"/>
-        <v>1.2700000000000009</v>
-      </c>
-      <c r="H127">
-        <v>240.24700000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G128">
-        <f t="shared" si="5"/>
-        <v>1.2800000000000009</v>
-      </c>
-      <c r="H128">
-        <v>256.44400000000002</v>
-      </c>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G129">
-        <f t="shared" si="5"/>
-        <v>1.2900000000000009</v>
-      </c>
-      <c r="H129">
-        <v>268.14600000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G130">
-        <f t="shared" si="5"/>
-        <v>1.3000000000000009</v>
-      </c>
-      <c r="H130">
-        <v>184.506</v>
-      </c>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G131">
-        <f t="shared" ref="G131:G194" si="6">G130+0.01</f>
-        <v>1.3100000000000009</v>
-      </c>
-      <c r="H131">
-        <v>369.97699999999998</v>
-      </c>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G132">
-        <f t="shared" si="6"/>
-        <v>1.320000000000001</v>
-      </c>
-      <c r="H132">
-        <v>282.00400000000002</v>
-      </c>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G133">
-        <f t="shared" si="6"/>
-        <v>1.330000000000001</v>
-      </c>
-      <c r="H133">
-        <v>202.00299999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G134">
-        <f t="shared" si="6"/>
-        <v>1.340000000000001</v>
-      </c>
-      <c r="H134">
-        <v>214.96299999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G135">
-        <f t="shared" si="6"/>
-        <v>1.350000000000001</v>
-      </c>
-      <c r="H135">
-        <v>233.50800000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G136">
-        <f t="shared" si="6"/>
-        <v>1.360000000000001</v>
-      </c>
-      <c r="H136">
-        <v>278.983</v>
-      </c>
-    </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G137">
-        <f t="shared" si="6"/>
-        <v>1.370000000000001</v>
-      </c>
-      <c r="H137">
-        <v>231.56399999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G138">
-        <f t="shared" si="6"/>
-        <v>1.380000000000001</v>
-      </c>
-      <c r="H138">
-        <v>248.31399999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G139">
-        <f t="shared" si="6"/>
-        <v>1.390000000000001</v>
-      </c>
-      <c r="H139">
-        <v>215.953</v>
-      </c>
-    </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G140">
-        <f t="shared" si="6"/>
-        <v>1.400000000000001</v>
-      </c>
-      <c r="H140">
-        <v>262.27699999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G141">
-        <f t="shared" si="6"/>
-        <v>1.410000000000001</v>
-      </c>
-      <c r="H141">
-        <v>274.68200000000002</v>
-      </c>
-    </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G142">
-        <f t="shared" si="6"/>
-        <v>1.420000000000001</v>
-      </c>
-      <c r="H142">
-        <v>229.52199999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G143">
-        <f t="shared" si="6"/>
-        <v>1.430000000000001</v>
-      </c>
-      <c r="H143">
-        <v>243.15299999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G144">
-        <f t="shared" si="6"/>
-        <v>1.4400000000000011</v>
-      </c>
-      <c r="H144">
-        <v>247.31700000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G145">
-        <f t="shared" si="6"/>
-        <v>1.4500000000000011</v>
-      </c>
-      <c r="H145">
-        <v>274.12099999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G146">
-        <f t="shared" si="6"/>
-        <v>1.4600000000000011</v>
-      </c>
-      <c r="H146">
-        <v>223.559</v>
-      </c>
-    </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G147">
-        <f t="shared" si="6"/>
-        <v>1.4700000000000011</v>
-      </c>
-      <c r="H147">
-        <v>246.00399999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G148">
-        <f t="shared" si="6"/>
-        <v>1.4800000000000011</v>
-      </c>
-      <c r="H148">
-        <v>218.02199999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G149">
-        <f t="shared" si="6"/>
-        <v>1.4900000000000011</v>
-      </c>
-      <c r="H149">
-        <v>259.12799999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G150">
-        <f t="shared" si="6"/>
-        <v>1.5000000000000011</v>
-      </c>
-      <c r="H150">
-        <v>260.09500000000003</v>
-      </c>
-    </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G151">
-        <f t="shared" si="6"/>
-        <v>1.5100000000000011</v>
-      </c>
-      <c r="H151">
-        <v>287.05799999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G152">
-        <f t="shared" si="6"/>
-        <v>1.5200000000000011</v>
-      </c>
-      <c r="H152">
-        <v>293.74799999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G153">
-        <f t="shared" si="6"/>
-        <v>1.5300000000000011</v>
-      </c>
-      <c r="H153">
-        <v>229.71600000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G154">
-        <f t="shared" si="6"/>
-        <v>1.5400000000000011</v>
-      </c>
-      <c r="H154">
-        <v>226.654</v>
-      </c>
-    </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G155">
-        <f t="shared" si="6"/>
-        <v>1.5500000000000012</v>
-      </c>
-      <c r="H155">
-        <v>338.65300000000002</v>
-      </c>
-    </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G156">
-        <f t="shared" si="6"/>
-        <v>1.5600000000000012</v>
-      </c>
-      <c r="H156">
-        <v>212.61699999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G157">
-        <f t="shared" si="6"/>
-        <v>1.5700000000000012</v>
-      </c>
-      <c r="H157">
-        <v>226.14400000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G158">
-        <f t="shared" si="6"/>
-        <v>1.5800000000000012</v>
-      </c>
-      <c r="H158">
-        <v>252.20599999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G159">
-        <f t="shared" si="6"/>
-        <v>1.5900000000000012</v>
-      </c>
-      <c r="H159">
-        <v>238.81399999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G160">
-        <f t="shared" si="6"/>
-        <v>1.6000000000000012</v>
-      </c>
-      <c r="H160">
-        <v>240.09100000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G161">
-        <f t="shared" si="6"/>
-        <v>1.6100000000000012</v>
-      </c>
-      <c r="H161">
-        <v>251.21600000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G162">
-        <f t="shared" si="6"/>
-        <v>1.6200000000000012</v>
-      </c>
-      <c r="H162">
-        <v>266.916</v>
-      </c>
-    </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G163">
-        <f t="shared" si="6"/>
-        <v>1.6300000000000012</v>
-      </c>
-      <c r="H163">
-        <v>182.398</v>
-      </c>
-    </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G164">
-        <f t="shared" si="6"/>
-        <v>1.6400000000000012</v>
-      </c>
-      <c r="H164">
-        <v>243.136</v>
-      </c>
-    </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G165">
-        <f t="shared" si="6"/>
-        <v>1.6500000000000012</v>
-      </c>
-      <c r="H165">
-        <v>232.04400000000001</v>
-      </c>
-    </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G166">
-        <f t="shared" si="6"/>
-        <v>1.6600000000000013</v>
-      </c>
-      <c r="H166">
-        <v>210.679</v>
-      </c>
-    </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G167">
-        <f t="shared" si="6"/>
-        <v>1.6700000000000013</v>
-      </c>
-      <c r="H167">
-        <v>205.59899999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G168">
-        <f t="shared" si="6"/>
-        <v>1.6800000000000013</v>
-      </c>
-      <c r="H168">
-        <v>245.07300000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G169">
-        <f t="shared" si="6"/>
-        <v>1.6900000000000013</v>
-      </c>
-      <c r="H169">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G170">
-        <f t="shared" si="6"/>
-        <v>1.7000000000000013</v>
-      </c>
-      <c r="H170">
-        <v>313.58600000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G171">
-        <f t="shared" si="6"/>
-        <v>1.7100000000000013</v>
-      </c>
-      <c r="H171">
-        <v>217.99600000000001</v>
-      </c>
-    </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G172">
-        <f t="shared" si="6"/>
-        <v>1.7200000000000013</v>
-      </c>
-      <c r="H172">
-        <v>249.61799999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G173">
-        <f t="shared" si="6"/>
-        <v>1.7300000000000013</v>
-      </c>
-      <c r="H173">
-        <v>238.381</v>
-      </c>
-    </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G174">
-        <f t="shared" si="6"/>
-        <v>1.7400000000000013</v>
-      </c>
-      <c r="H174">
-        <v>305.54599999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G175">
-        <f t="shared" si="6"/>
-        <v>1.7500000000000013</v>
-      </c>
-      <c r="H175">
-        <v>214.404</v>
-      </c>
-    </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G176">
-        <f t="shared" si="6"/>
-        <v>1.7600000000000013</v>
-      </c>
-      <c r="H176">
-        <v>274.71100000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G177">
-        <f t="shared" si="6"/>
-        <v>1.7700000000000014</v>
-      </c>
-      <c r="H177">
-        <v>210.00200000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G178">
-        <f t="shared" si="6"/>
-        <v>1.7800000000000014</v>
-      </c>
-      <c r="H178">
-        <v>212.916</v>
-      </c>
-    </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G179">
-        <f t="shared" si="6"/>
-        <v>1.7900000000000014</v>
-      </c>
-      <c r="H179">
-        <v>240.48</v>
-      </c>
-    </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G180">
-        <f t="shared" si="6"/>
-        <v>1.8000000000000014</v>
-      </c>
-      <c r="H180">
-        <v>271.75299999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G181">
-        <f t="shared" si="6"/>
-        <v>1.8100000000000014</v>
-      </c>
-      <c r="H181">
-        <v>263.50400000000002</v>
-      </c>
-    </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G182">
-        <f t="shared" si="6"/>
-        <v>1.8200000000000014</v>
-      </c>
-      <c r="H182">
-        <v>256.95999999999998</v>
-      </c>
-    </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G183">
-        <f t="shared" si="6"/>
-        <v>1.8300000000000014</v>
-      </c>
-      <c r="H183">
-        <v>245.25200000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G184">
-        <f t="shared" si="6"/>
-        <v>1.8400000000000014</v>
-      </c>
-      <c r="H184">
-        <v>192.167</v>
-      </c>
-    </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G185">
-        <f t="shared" si="6"/>
-        <v>1.8500000000000014</v>
-      </c>
-      <c r="H185">
-        <v>214.83500000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G186">
-        <f t="shared" si="6"/>
-        <v>1.8600000000000014</v>
-      </c>
-      <c r="H186">
-        <v>241.04400000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G187">
-        <f t="shared" si="6"/>
-        <v>1.8700000000000014</v>
-      </c>
-      <c r="H187">
-        <v>233.59299999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G188">
-        <f t="shared" si="6"/>
-        <v>1.8800000000000014</v>
-      </c>
-      <c r="H188">
-        <v>220.12899999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G189">
-        <f t="shared" si="6"/>
-        <v>1.8900000000000015</v>
-      </c>
-      <c r="H189">
-        <v>182.44800000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G190">
-        <f t="shared" si="6"/>
-        <v>1.9000000000000015</v>
-      </c>
-      <c r="H190">
-        <v>231.53299999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G191">
-        <f t="shared" si="6"/>
-        <v>1.9100000000000015</v>
-      </c>
-      <c r="H191">
-        <v>202.95699999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G192">
-        <f t="shared" si="6"/>
-        <v>1.9200000000000015</v>
-      </c>
-      <c r="H192">
-        <v>268.18599999999998</v>
-      </c>
-    </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G193">
-        <f t="shared" si="6"/>
-        <v>1.9300000000000015</v>
-      </c>
-      <c r="H193">
-        <v>202.739</v>
-      </c>
-    </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G194">
-        <f t="shared" si="6"/>
-        <v>1.9400000000000015</v>
-      </c>
-      <c r="H194">
-        <v>284.38099999999997</v>
-      </c>
-    </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G195">
-        <f>G194+0.01</f>
-        <v>1.9500000000000015</v>
-      </c>
-      <c r="H195">
-        <v>302.81799999999998</v>
-      </c>
-    </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G196">
-        <f t="shared" ref="G196:G200" si="7">G195+0.01</f>
-        <v>1.9600000000000015</v>
-      </c>
-      <c r="H196">
-        <v>229.114</v>
-      </c>
-    </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G197">
-        <f t="shared" si="7"/>
-        <v>1.9700000000000015</v>
-      </c>
-      <c r="H197">
-        <v>192.66399999999999</v>
-      </c>
-    </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G198">
-        <f t="shared" si="7"/>
-        <v>1.9800000000000015</v>
-      </c>
-      <c r="H198">
-        <v>196.68799999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G199">
-        <f t="shared" si="7"/>
-        <v>1.9900000000000015</v>
-      </c>
-      <c r="H199">
-        <v>238.90600000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G200">
-        <f t="shared" si="7"/>
-        <v>2.0000000000000013</v>
-      </c>
-      <c r="H200">
-        <v>187.06800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10647,4 +9434,1866 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AG39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="9" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1.3816999999999999</v>
+      </c>
+      <c r="D5">
+        <v>3.0491999999999999</v>
+      </c>
+      <c r="E5">
+        <f>F5/F9</f>
+        <v>0.69156005820685329</v>
+      </c>
+      <c r="F5">
+        <f>AVERAGE(J5:AG5)</f>
+        <v>57.225817416666679</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="J5">
+        <v>42.871020999999999</v>
+      </c>
+      <c r="K5">
+        <v>-0.23455599999999999</v>
+      </c>
+      <c r="L5">
+        <v>65.166022999999996</v>
+      </c>
+      <c r="M5">
+        <v>83.175644000000005</v>
+      </c>
+      <c r="N5">
+        <v>52.422511999999998</v>
+      </c>
+      <c r="O5">
+        <v>7.2190940000000001</v>
+      </c>
+      <c r="P5">
+        <v>245.33715799999999</v>
+      </c>
+      <c r="Q5">
+        <v>-31.129512999999999</v>
+      </c>
+      <c r="R5">
+        <v>29.482057999999999</v>
+      </c>
+      <c r="S5">
+        <v>-5.1461119999999996</v>
+      </c>
+      <c r="T5">
+        <v>127.130753</v>
+      </c>
+      <c r="U5">
+        <v>13.068156999999999</v>
+      </c>
+      <c r="V5">
+        <v>91.209548999999996</v>
+      </c>
+      <c r="W5">
+        <v>4.9403069999999998</v>
+      </c>
+      <c r="X5">
+        <v>109.74645200000001</v>
+      </c>
+      <c r="Y5">
+        <v>27.60943</v>
+      </c>
+      <c r="Z5">
+        <v>48.973385</v>
+      </c>
+      <c r="AA5">
+        <v>-0.96722600000000003</v>
+      </c>
+      <c r="AB5">
+        <v>147.69682299999999</v>
+      </c>
+      <c r="AC5">
+        <v>-49.282963000000002</v>
+      </c>
+      <c r="AD5">
+        <v>105.64913900000001</v>
+      </c>
+      <c r="AE5">
+        <v>0.41648800000000002</v>
+      </c>
+      <c r="AF5">
+        <v>254.593491</v>
+      </c>
+      <c r="AG5">
+        <v>3.4725039999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D6">
+        <v>212.27199999999999</v>
+      </c>
+      <c r="E6">
+        <f>F6/F10</f>
+        <v>1.402096119021637</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F24" si="0">AVERAGE(J6:AG6)</f>
+        <v>4.6342103733333336E-5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.6237591000000001E-5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>6.3086697000000005E-5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8.3192772000000004E-5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9.7574424999999994E-5</v>
+      </c>
+      <c r="N6" s="3">
+        <v>8.0726685E-5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>3.001593E-5</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3.0097424E-5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>3.0172081E-5</v>
+      </c>
+      <c r="R6" s="3">
+        <v>3.0648300000000003E-5</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2.4726685000000001E-5</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3.2243889000000001E-5</v>
+      </c>
+      <c r="U6" s="3">
+        <v>3.7341281999999998E-5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>3.8817447999999997E-5</v>
+      </c>
+      <c r="W6" s="3">
+        <v>3.9812526999999999E-5</v>
+      </c>
+      <c r="X6" s="3">
+        <v>3.043782E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2.9342999999999999</v>
+      </c>
+      <c r="D7">
+        <v>3.0243699999999998</v>
+      </c>
+      <c r="E7">
+        <f>F7/F9</f>
+        <v>1.6562520871223858</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>137.05299837499999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J7">
+        <v>151.503906</v>
+      </c>
+      <c r="K7">
+        <v>106.02816</v>
+      </c>
+      <c r="L7">
+        <v>244.83067299999999</v>
+      </c>
+      <c r="M7">
+        <v>30.250183</v>
+      </c>
+      <c r="N7">
+        <v>164.12434400000001</v>
+      </c>
+      <c r="O7">
+        <v>33.689709000000001</v>
+      </c>
+      <c r="P7">
+        <v>268.195221</v>
+      </c>
+      <c r="Q7">
+        <v>30.074625000000001</v>
+      </c>
+      <c r="R7">
+        <v>152.584641</v>
+      </c>
+      <c r="S7">
+        <v>107.251373</v>
+      </c>
+      <c r="T7">
+        <v>210.61483799999999</v>
+      </c>
+      <c r="U7">
+        <v>-62.760570999999999</v>
+      </c>
+      <c r="V7">
+        <v>209.60417200000001</v>
+      </c>
+      <c r="W7">
+        <v>175.223465</v>
+      </c>
+      <c r="X7">
+        <v>220.19811999999999</v>
+      </c>
+      <c r="Y7">
+        <v>129.64318800000001</v>
+      </c>
+      <c r="Z7">
+        <v>98.879020999999995</v>
+      </c>
+      <c r="AA7">
+        <v>107.08551799999999</v>
+      </c>
+      <c r="AB7">
+        <v>326.20944200000002</v>
+      </c>
+      <c r="AC7">
+        <v>44.475985999999999</v>
+      </c>
+      <c r="AD7">
+        <v>96.805817000000005</v>
+      </c>
+      <c r="AE7">
+        <v>54.626880999999997</v>
+      </c>
+      <c r="AF7">
+        <v>359.79263300000002</v>
+      </c>
+      <c r="AG7">
+        <v>30.340616000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>143.22399999999999</v>
+      </c>
+      <c r="E8">
+        <f>F8/F10</f>
+        <v>3.6613200242807591</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.2101400900000001E-4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.17070122E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.0268292200000001E-4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.9861593600000001E-4</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2.4458886700000002E-4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2.3843782000000001E-4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>8.7509773000000007E-5</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3.6396919000000002E-5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1.0362809800000001E-4</v>
+      </c>
+      <c r="R8" s="3">
+        <v>9.1630119000000001E-5</v>
+      </c>
+      <c r="S8" s="3">
+        <v>9.7175949000000007E-5</v>
+      </c>
+      <c r="T8" s="3">
+        <v>5.9774276999999998E-5</v>
+      </c>
+      <c r="U8" s="3">
+        <v>5.9260632000000001E-5</v>
+      </c>
+      <c r="V8" s="3">
+        <v>6.4199661000000001E-5</v>
+      </c>
+      <c r="W8" s="3">
+        <v>5.5017325999999997E-5</v>
+      </c>
+      <c r="X8" s="3">
+        <v>5.9221714000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3.0658799999999999</v>
+      </c>
+      <c r="E9">
+        <f>F9/F9</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>82.748875874999996</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="J9">
+        <v>31.146197999999998</v>
+      </c>
+      <c r="K9">
+        <v>-12.802702</v>
+      </c>
+      <c r="L9">
+        <v>44.028666999999999</v>
+      </c>
+      <c r="M9">
+        <v>31.896356999999998</v>
+      </c>
+      <c r="N9">
+        <v>78.707756000000003</v>
+      </c>
+      <c r="O9">
+        <v>26.754574000000002</v>
+      </c>
+      <c r="P9">
+        <v>268.680725</v>
+      </c>
+      <c r="Q9">
+        <v>27.743423</v>
+      </c>
+      <c r="R9">
+        <v>67.368431000000001</v>
+      </c>
+      <c r="S9">
+        <v>77.767944</v>
+      </c>
+      <c r="T9">
+        <v>182.27340699999999</v>
+      </c>
+      <c r="U9">
+        <v>-14.661531</v>
+      </c>
+      <c r="V9">
+        <v>113.367035</v>
+      </c>
+      <c r="W9">
+        <v>54.802021000000003</v>
+      </c>
+      <c r="X9">
+        <v>175.12657200000001</v>
+      </c>
+      <c r="Y9">
+        <v>44.657330000000002</v>
+      </c>
+      <c r="Z9">
+        <v>144.29482999999999</v>
+      </c>
+      <c r="AA9">
+        <v>111.404854</v>
+      </c>
+      <c r="AB9">
+        <v>138.42214999999999</v>
+      </c>
+      <c r="AC9">
+        <v>-29.861851000000001</v>
+      </c>
+      <c r="AD9">
+        <v>143.93336500000001</v>
+      </c>
+      <c r="AE9">
+        <v>49.654823</v>
+      </c>
+      <c r="AF9">
+        <v>191.77758800000001</v>
+      </c>
+      <c r="AG9">
+        <v>39.491055000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>272.18200000000002</v>
+      </c>
+      <c r="E10">
+        <f>F10/F10</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.3052016266666658E-5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3.6348365999999999E-5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4.9585537000000003E-5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>4.574408E-5</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4.7413387E-5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2.0726685000000002E-5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3.3013252E-5</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2.9744385000000002E-5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>3.5103642000000002E-5</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3.4041019E-5</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1.4439937999999999E-5</v>
+      </c>
+      <c r="T10" s="3">
+        <v>3.7157592999999999E-5</v>
+      </c>
+      <c r="U10" s="3">
+        <v>3.4107452E-5</v>
+      </c>
+      <c r="V10" s="3">
+        <v>3.3229435E-5</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3.4685535000000001E-5</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1.0439938E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>15.8108</v>
+      </c>
+      <c r="D11">
+        <v>3.0042900000000001</v>
+      </c>
+      <c r="E11">
+        <f>F11/F9</f>
+        <v>12.985208335315043</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1074.5113927499999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.128</v>
+      </c>
+      <c r="J11">
+        <v>2002.08618</v>
+      </c>
+      <c r="K11">
+        <v>0.34558800000000001</v>
+      </c>
+      <c r="L11">
+        <v>2027.48559</v>
+      </c>
+      <c r="M11">
+        <v>19.189022000000001</v>
+      </c>
+      <c r="N11">
+        <v>2107.2275300000001</v>
+      </c>
+      <c r="O11">
+        <v>36.371597000000001</v>
+      </c>
+      <c r="P11">
+        <v>2171.7333899999999</v>
+      </c>
+      <c r="Q11">
+        <v>16.904713000000001</v>
+      </c>
+      <c r="R11">
+        <v>2107.29882</v>
+      </c>
+      <c r="S11">
+        <v>57.936157000000001</v>
+      </c>
+      <c r="T11">
+        <v>2153.3071199999999</v>
+      </c>
+      <c r="U11">
+        <v>24.392872000000001</v>
+      </c>
+      <c r="V11">
+        <v>2107.7329100000002</v>
+      </c>
+      <c r="W11">
+        <v>28.389059</v>
+      </c>
+      <c r="X11">
+        <v>2132.7260700000002</v>
+      </c>
+      <c r="Y11">
+        <v>101.46202099999999</v>
+      </c>
+      <c r="Z11">
+        <v>2106.9375</v>
+      </c>
+      <c r="AA11">
+        <v>70.149529000000001</v>
+      </c>
+      <c r="AB11">
+        <v>2121.8735299999998</v>
+      </c>
+      <c r="AC11">
+        <v>38.054454999999997</v>
+      </c>
+      <c r="AD11">
+        <v>2107.3078599999999</v>
+      </c>
+      <c r="AE11">
+        <v>61.216290000000001</v>
+      </c>
+      <c r="AF11">
+        <v>2150.4767999999999</v>
+      </c>
+      <c r="AG11">
+        <v>37.668823000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>3.5</v>
+      </c>
+      <c r="D12">
+        <v>196.17599999999999</v>
+      </c>
+      <c r="E12">
+        <f>F12/F10</f>
+        <v>0.94007299330789806</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.1071307866666664E-5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5.1713813999999998E-5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3.6506981000000003E-5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6.6360748000000001E-5</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5.2729267E-5</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.5221714E-5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>4.0659469999999997E-5</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1.0401686000000001E-5</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>2.0847819999999999E-5</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3.0993469000000003E-5</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1.2726685E-5</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3.1282821999999998E-5</v>
+      </c>
+      <c r="U12" s="3">
+        <v>2.2910311E-5</v>
+      </c>
+      <c r="V12" s="3">
+        <v>2.6350384000000001E-5</v>
+      </c>
+      <c r="W12" s="3">
+        <v>3.0637762000000003E-5</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1.6726684999999999E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="D13">
+        <v>3.0993300000000001</v>
+      </c>
+      <c r="E13">
+        <f>F13/F9</f>
+        <v>0.97792559489155317</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>80.92224366666666</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>0.224</v>
+      </c>
+      <c r="J13">
+        <v>12.486332000000001</v>
+      </c>
+      <c r="K13">
+        <v>-19.875323999999999</v>
+      </c>
+      <c r="L13">
+        <v>3.2724340000000001</v>
+      </c>
+      <c r="M13">
+        <v>17.616288999999998</v>
+      </c>
+      <c r="N13">
+        <v>32.172089</v>
+      </c>
+      <c r="O13">
+        <v>56.01276</v>
+      </c>
+      <c r="P13">
+        <v>283.46636999999998</v>
+      </c>
+      <c r="Q13">
+        <v>-2.4384359999999998</v>
+      </c>
+      <c r="R13">
+        <v>48.565407</v>
+      </c>
+      <c r="S13">
+        <v>94.126334999999997</v>
+      </c>
+      <c r="T13">
+        <v>180.10122699999999</v>
+      </c>
+      <c r="U13">
+        <v>4.4390799999999997</v>
+      </c>
+      <c r="V13">
+        <v>77.093795999999998</v>
+      </c>
+      <c r="W13">
+        <v>2.9586640000000002</v>
+      </c>
+      <c r="X13">
+        <v>91.251159999999999</v>
+      </c>
+      <c r="Y13">
+        <v>6.1077000000000004</v>
+      </c>
+      <c r="Z13">
+        <v>126.205986</v>
+      </c>
+      <c r="AA13">
+        <v>84.471717999999996</v>
+      </c>
+      <c r="AB13">
+        <v>305.131531</v>
+      </c>
+      <c r="AC13">
+        <v>38.495131999999998</v>
+      </c>
+      <c r="AD13">
+        <v>92.343170000000001</v>
+      </c>
+      <c r="AE13">
+        <v>117.527084</v>
+      </c>
+      <c r="AF13">
+        <v>243.26490799999999</v>
+      </c>
+      <c r="AG13">
+        <v>47.338436000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1.7</v>
+      </c>
+      <c r="D14">
+        <v>241.74799999999999</v>
+      </c>
+      <c r="E14">
+        <f>F14/F10</f>
+        <v>0.98506141765503707</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3.2558266000000003E-5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5.9469658000000003E-5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3.7500004000000001E-5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3.5787307999999997E-5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3.5737105999999997E-5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2.1033506000000001E-5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4.0072277000000003E-5</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3.7446949000000003E-5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3.5206612000000002E-5</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2.4871773000000001E-5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>9.0335060000000006E-6</v>
+      </c>
+      <c r="T14" s="3">
+        <v>4.5625023000000001E-5</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.9520980999999998E-5</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3.0734119E-5</v>
+      </c>
+      <c r="W14" s="3">
+        <v>2.3301662E-5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1.3033506E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1.0164</v>
+      </c>
+      <c r="D15">
+        <v>3.0649299999999999</v>
+      </c>
+      <c r="E15">
+        <f>F15/F9</f>
+        <v>1.2657739110344137</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>104.74136824999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <v>0.187</v>
+      </c>
+      <c r="J15">
+        <v>16.593831999999999</v>
+      </c>
+      <c r="K15">
+        <v>-14.69599</v>
+      </c>
+      <c r="L15">
+        <v>34.477122999999999</v>
+      </c>
+      <c r="M15">
+        <v>36.860301999999997</v>
+      </c>
+      <c r="N15">
+        <v>46.364764999999998</v>
+      </c>
+      <c r="O15">
+        <v>53.694656000000002</v>
+      </c>
+      <c r="P15">
+        <v>261.01385499999998</v>
+      </c>
+      <c r="Q15">
+        <v>-29.691300999999999</v>
+      </c>
+      <c r="R15">
+        <v>49.285110000000003</v>
+      </c>
+      <c r="S15">
+        <v>87.596100000000007</v>
+      </c>
+      <c r="T15">
+        <v>206.37399300000001</v>
+      </c>
+      <c r="U15">
+        <v>22.768457000000001</v>
+      </c>
+      <c r="V15">
+        <v>123.98922</v>
+      </c>
+      <c r="W15">
+        <v>105.18177</v>
+      </c>
+      <c r="X15">
+        <v>365.96621699999997</v>
+      </c>
+      <c r="Y15">
+        <v>44.217571</v>
+      </c>
+      <c r="Z15">
+        <v>139.68632500000001</v>
+      </c>
+      <c r="AA15">
+        <v>73.592560000000006</v>
+      </c>
+      <c r="AB15">
+        <v>413.55316199999999</v>
+      </c>
+      <c r="AC15">
+        <v>-174.43852999999999</v>
+      </c>
+      <c r="AD15">
+        <v>127.44381</v>
+      </c>
+      <c r="AE15">
+        <v>85.848586999999995</v>
+      </c>
+      <c r="AF15">
+        <v>405.87283300000001</v>
+      </c>
+      <c r="AG15">
+        <v>32.238410999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1.6</v>
+      </c>
+      <c r="D16">
+        <v>247.125</v>
+      </c>
+      <c r="E16">
+        <f>F16/F10</f>
+        <v>0.65863847128204667</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.1769329466666667E-5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2.3191698000000001E-5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3.2932217000000003E-5</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3.4406497999999998E-5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3.9014419999999998E-5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2.3382786000000001E-5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>2.4749964E-5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1.8651314E-5</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.6370552000000001E-5</v>
+      </c>
+      <c r="R16" s="3">
+        <v>2.5095791E-5</v>
+      </c>
+      <c r="S16" s="3">
+        <v>8.8601649999999996E-6</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1.4267623999999999E-5</v>
+      </c>
+      <c r="U16" s="3">
+        <v>7.0529059999999996E-6</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1.4515154E-5</v>
+      </c>
+      <c r="W16" s="3">
+        <v>2.4665126999999999E-5</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1.9383726E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>3.6078999999999999</v>
+      </c>
+      <c r="D17">
+        <v>3.0200900000000002</v>
+      </c>
+      <c r="E17">
+        <f>F17/F9</f>
+        <v>4.1700368572126747</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>345.06586229166669</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="J17">
+        <v>205.35200499999999</v>
+      </c>
+      <c r="K17">
+        <v>10.234076999999999</v>
+      </c>
+      <c r="L17">
+        <v>1013.88629</v>
+      </c>
+      <c r="M17">
+        <v>53.387183999999998</v>
+      </c>
+      <c r="N17">
+        <v>232.02763400000001</v>
+      </c>
+      <c r="O17">
+        <v>40.646338999999998</v>
+      </c>
+      <c r="P17">
+        <v>1052.8428899999999</v>
+      </c>
+      <c r="Q17">
+        <v>64.980498999999995</v>
+      </c>
+      <c r="R17">
+        <v>224.592209</v>
+      </c>
+      <c r="S17">
+        <v>40.384563</v>
+      </c>
+      <c r="T17">
+        <v>1054.43444</v>
+      </c>
+      <c r="U17">
+        <v>67.184807000000006</v>
+      </c>
+      <c r="V17">
+        <v>225.95105000000001</v>
+      </c>
+      <c r="W17">
+        <v>62.095657000000003</v>
+      </c>
+      <c r="X17">
+        <v>1059.5974100000001</v>
+      </c>
+      <c r="Y17">
+        <v>83.992019999999997</v>
+      </c>
+      <c r="Z17">
+        <v>226.03956600000001</v>
+      </c>
+      <c r="AA17">
+        <v>40.502791999999999</v>
+      </c>
+      <c r="AB17">
+        <v>1058.2777100000001</v>
+      </c>
+      <c r="AC17">
+        <v>75.118423000000007</v>
+      </c>
+      <c r="AD17">
+        <v>225.76748699999999</v>
+      </c>
+      <c r="AE17">
+        <v>40.917892000000002</v>
+      </c>
+      <c r="AF17">
+        <v>1051.5571199999999</v>
+      </c>
+      <c r="AG17">
+        <v>71.810631000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>204.398</v>
+      </c>
+      <c r="E18">
+        <f>F18/F10</f>
+        <v>2.1870760747780027</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>7.2287274000000011E-5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6.4196456999999997E-5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>6.0286174999999997E-5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6.0943428E-5</v>
+      </c>
+      <c r="M18" s="3">
+        <v>6.2433696999999997E-5</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.9824701E-5</v>
+      </c>
+      <c r="O18" s="3">
+        <v>7.3384566999999998E-5</v>
+      </c>
+      <c r="P18" s="3">
+        <v>5.9671981999999998E-5</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>6.1080757000000002E-5</v>
+      </c>
+      <c r="R18" s="3">
+        <v>6.8242569000000005E-5</v>
+      </c>
+      <c r="S18" s="3">
+        <v>3.6033474000000002E-5</v>
+      </c>
+      <c r="T18" s="3">
+        <v>9.6951576000000003E-5</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1.07848228E-4</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1.13060738E-4</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1.2056974E-4</v>
+      </c>
+      <c r="X18" s="3">
+        <v>7.9781020999999998E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1.9126000000000001</v>
+      </c>
+      <c r="D19">
+        <v>3.0363600000000002</v>
+      </c>
+      <c r="E19">
+        <f>F19/F9</f>
+        <v>0.57783545892389032</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>47.815234666666662</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J19">
+        <v>47.971176</v>
+      </c>
+      <c r="K19">
+        <v>6.8345209999999996</v>
+      </c>
+      <c r="L19">
+        <v>104.61545599999999</v>
+      </c>
+      <c r="M19">
+        <v>60.773662999999999</v>
+      </c>
+      <c r="N19">
+        <v>40.369045</v>
+      </c>
+      <c r="O19">
+        <v>23.092956999999998</v>
+      </c>
+      <c r="P19">
+        <v>169.66629</v>
+      </c>
+      <c r="Q19">
+        <v>-24.681889999999999</v>
+      </c>
+      <c r="R19">
+        <v>40.291598999999998</v>
+      </c>
+      <c r="S19">
+        <v>48.142597000000002</v>
+      </c>
+      <c r="T19">
+        <v>138.26161200000001</v>
+      </c>
+      <c r="U19">
+        <v>9.0025580000000005</v>
+      </c>
+      <c r="V19">
+        <v>51.393467000000001</v>
+      </c>
+      <c r="W19">
+        <v>-32.966949</v>
+      </c>
+      <c r="X19">
+        <v>79.881720999999999</v>
+      </c>
+      <c r="Y19">
+        <v>35.973193999999999</v>
+      </c>
+      <c r="Z19">
+        <v>51.500937999999998</v>
+      </c>
+      <c r="AA19">
+        <v>1.8689100000000001</v>
+      </c>
+      <c r="AB19">
+        <v>63.693931999999997</v>
+      </c>
+      <c r="AC19">
+        <v>-37.540416999999998</v>
+      </c>
+      <c r="AD19">
+        <v>68.621184999999997</v>
+      </c>
+      <c r="AE19">
+        <v>40.131950000000003</v>
+      </c>
+      <c r="AF19">
+        <v>124.468513</v>
+      </c>
+      <c r="AG19">
+        <v>36.199604000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2.9</v>
+      </c>
+      <c r="D20">
+        <v>205.125</v>
+      </c>
+      <c r="E20">
+        <f>F20/F10</f>
+        <v>1.5205489127961305</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5.0257207400000003E-5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6.0237942000000003E-5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5.6357207999999998E-5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>6.9698592999999998E-5</v>
+      </c>
+      <c r="M20" s="3">
+        <v>5.5305968999999997E-5</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3.4705532000000003E-5</v>
+      </c>
+      <c r="O20" s="3">
+        <v>5.8803211000000003E-5</v>
+      </c>
+      <c r="P20" s="3">
+        <v>6.3121964000000005E-5</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>6.1379181000000005E-5</v>
+      </c>
+      <c r="R20" s="3">
+        <v>4.7971301999999998E-5</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1.9383726E-5</v>
+      </c>
+      <c r="T20" s="3">
+        <v>5.1018832999999997E-5</v>
+      </c>
+      <c r="U20" s="3">
+        <v>5.0741454999999999E-5</v>
+      </c>
+      <c r="V20" s="3">
+        <v>5.0570576000000001E-5</v>
+      </c>
+      <c r="W20" s="3">
+        <v>5.0006000999999998E-5</v>
+      </c>
+      <c r="X20" s="3">
+        <v>2.4556618000000001E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>1.9783999999999999</v>
+      </c>
+      <c r="D21">
+        <v>3.0351400000000002</v>
+      </c>
+      <c r="E21">
+        <f>F21/F9</f>
+        <v>1.5377375330417442</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>127.24605224999999</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>0.113</v>
+      </c>
+      <c r="J21">
+        <v>43.067627000000002</v>
+      </c>
+      <c r="K21">
+        <v>54.373299000000003</v>
+      </c>
+      <c r="L21">
+        <v>171.424835</v>
+      </c>
+      <c r="M21">
+        <v>14.3147</v>
+      </c>
+      <c r="N21">
+        <v>75.151695000000004</v>
+      </c>
+      <c r="O21">
+        <v>82.195221000000004</v>
+      </c>
+      <c r="P21">
+        <v>236.16377299999999</v>
+      </c>
+      <c r="Q21">
+        <v>-7.2303829999999998</v>
+      </c>
+      <c r="R21">
+        <v>57.548206</v>
+      </c>
+      <c r="S21">
+        <v>89.637825000000007</v>
+      </c>
+      <c r="T21">
+        <v>224.55384799999999</v>
+      </c>
+      <c r="U21">
+        <v>3.9320430000000002</v>
+      </c>
+      <c r="V21">
+        <v>107.244377</v>
+      </c>
+      <c r="W21">
+        <v>124.801788</v>
+      </c>
+      <c r="X21">
+        <v>364.58355699999998</v>
+      </c>
+      <c r="Y21">
+        <v>41.386868</v>
+      </c>
+      <c r="Z21">
+        <v>178.734039</v>
+      </c>
+      <c r="AA21">
+        <v>178.48890700000001</v>
+      </c>
+      <c r="AB21">
+        <v>371.76461799999998</v>
+      </c>
+      <c r="AC21">
+        <v>-30.898057999999999</v>
+      </c>
+      <c r="AD21">
+        <v>227.02868699999999</v>
+      </c>
+      <c r="AE21">
+        <v>-21.865427</v>
+      </c>
+      <c r="AF21">
+        <v>404.867188</v>
+      </c>
+      <c r="AG21">
+        <v>62.636021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.9</v>
+      </c>
+      <c r="D22">
+        <v>222.2</v>
+      </c>
+      <c r="E22">
+        <f>F22/F10</f>
+        <v>0.56867961039609338</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.8796007733333336E-5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1.4293814E-5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8.9493909999999998E-6</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3.0011125999999999E-5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3.6081490000000003E-5</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1.8363135999999999E-5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>2.1951699999999999E-5</v>
+      </c>
+      <c r="P22" s="3">
+        <v>2.2446325000000001E-5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1.8408735000000001E-5</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1.9598494999999998E-5</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1.2071854E-5</v>
+      </c>
+      <c r="T22" s="3">
+        <v>2.0345654000000002E-5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2.2696880000000001E-5</v>
+      </c>
+      <c r="V22" s="3">
+        <v>1.5698070999999999E-5</v>
+      </c>
+      <c r="W22" s="3">
+        <v>1.3466827E-5</v>
+      </c>
+      <c r="X22" s="3">
+        <v>7.5566179999999999E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>22.285699999999999</v>
+      </c>
+      <c r="D23">
+        <v>3.00312</v>
+      </c>
+      <c r="E23">
+        <f>F23/F9</f>
+        <v>13.076655410919603</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1082.0785354583334</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>0.22</v>
+      </c>
+      <c r="J23">
+        <v>2016.55456</v>
+      </c>
+      <c r="K23">
+        <v>9.1705109999999994</v>
+      </c>
+      <c r="L23">
+        <v>2034.9764399999999</v>
+      </c>
+      <c r="M23">
+        <v>104.759674</v>
+      </c>
+      <c r="N23">
+        <v>2109.5168399999998</v>
+      </c>
+      <c r="O23">
+        <v>38.604588</v>
+      </c>
+      <c r="P23">
+        <v>2173.9396900000002</v>
+      </c>
+      <c r="Q23">
+        <v>19.129176999999999</v>
+      </c>
+      <c r="R23">
+        <v>2109.7800200000001</v>
+      </c>
+      <c r="S23">
+        <v>60.165309999999998</v>
+      </c>
+      <c r="T23">
+        <v>2155.5136699999998</v>
+      </c>
+      <c r="U23">
+        <v>27.817889999999998</v>
+      </c>
+      <c r="V23">
+        <v>2110.33349</v>
+      </c>
+      <c r="W23">
+        <v>30.987428999999999</v>
+      </c>
+      <c r="X23">
+        <v>2135.0790999999999</v>
+      </c>
+      <c r="Y23">
+        <v>121.482445</v>
+      </c>
+      <c r="Z23">
+        <v>2109.1601500000002</v>
+      </c>
+      <c r="AA23">
+        <v>72.393326000000002</v>
+      </c>
+      <c r="AB23">
+        <v>2124.1352499999998</v>
+      </c>
+      <c r="AC23">
+        <v>40.810982000000003</v>
+      </c>
+      <c r="AD23">
+        <v>2109.52612</v>
+      </c>
+      <c r="AE23">
+        <v>63.424014999999997</v>
+      </c>
+      <c r="AF23">
+        <v>2152.7385199999999</v>
+      </c>
+      <c r="AG23">
+        <v>39.885654000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>129.05699999999999</v>
+      </c>
+      <c r="E24">
+        <f>F24/F10</f>
+        <v>5.1726456591118239</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.7096636846666667E-4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.25409805E-4</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.67284561E-4</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2.1541274999999999E-4</v>
+      </c>
+      <c r="M24" s="3">
+        <v>2.1509078999999999E-4</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2.2386103799999999E-4</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1.07997696E-4</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1.20583267E-4</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1.44141678E-4</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1.40606689E-4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1.5304830899999999E-4</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1.25409805E-4</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1.67284561E-4</v>
+      </c>
+      <c r="V24" s="3">
+        <v>2.1541274999999999E-4</v>
+      </c>
+      <c r="W24" s="3">
+        <v>2.1509078999999999E-4</v>
+      </c>
+      <c r="X24" s="3">
+        <v>2.27861038E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J30">
+        <v>1.3816999999999999</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+      <c r="J31">
+        <v>2.9342999999999999</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3.5</v>
+      </c>
+      <c r="J33">
+        <v>15.8108</v>
+      </c>
+      <c r="K33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>1.7</v>
+      </c>
+      <c r="J34">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="K34" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>1.6</v>
+      </c>
+      <c r="J35">
+        <v>1.0164</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3.6078999999999999</v>
+      </c>
+      <c r="K36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>2.9</v>
+      </c>
+      <c r="J37">
+        <v>1.9126000000000001</v>
+      </c>
+      <c r="K37" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>1.9</v>
+      </c>
+      <c r="J38">
+        <v>1.9783999999999999</v>
+      </c>
+      <c r="K38" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <v>19</v>
+      </c>
+      <c r="J39">
+        <v>22.285699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sensitivity.xlsx
+++ b/sensitivity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stretching" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +129,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,8 +167,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -161,7 +179,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1957,11 +1977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1688757936"/>
-        <c:axId val="-1688760240"/>
+        <c:axId val="-874185920"/>
+        <c:axId val="-874207312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1688757936"/>
+        <c:axId val="-874185920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,22 +1992,23 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1688760240"/>
+        <c:crossAx val="-874207312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1688760240"/>
+        <c:axId val="-874207312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1688757936"/>
+        <c:crossAx val="-874185920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2403,7 +2424,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(bending!$A$5:$A$20,bending!$E$3:$E$100)</c:f>
+              <c:f>(bending!$B$5:$B$20,bending!$E$3:$E$100)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
@@ -2762,11 +2783,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1580090208"/>
-        <c:axId val="-1580087456"/>
+        <c:axId val="-875705088"/>
+        <c:axId val="-875702336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1580090208"/>
+        <c:axId val="-875705088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,12 +2797,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1580087456"/>
+        <c:crossAx val="-875702336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1580087456"/>
+        <c:axId val="-875702336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,7 +2812,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1580090208"/>
+        <c:crossAx val="-875705088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2822,16 +2843,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2857,16 +2878,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3153,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7897,6 +7918,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7905,21 +7927,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>0.1</v>
+      </c>
+      <c r="B1">
         <v>317.15800000000002</v>
       </c>
-      <c r="B1">
-        <v>0.1</v>
-      </c>
       <c r="C1">
-        <f>1/B1</f>
+        <f>1/A1</f>
         <v>10</v>
       </c>
       <c r="D1">
@@ -7935,14 +7957,14 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
+        <f>0.1+A1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B2">
         <v>258.83199999999999</v>
       </c>
-      <c r="B2">
-        <f>0.1+B1</f>
-        <v>0.2</v>
-      </c>
       <c r="C2">
-        <f t="shared" ref="C2:C20" si="0">1/B2</f>
+        <f>1/A2</f>
         <v>5</v>
       </c>
       <c r="D2">
@@ -7953,1479 +7975,1479 @@
         <v>217.89599999999999</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F65" si="1">1/D2</f>
+        <f t="shared" ref="F2:F65" si="0">1/D2</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
+        <f>0.1+A2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B3">
         <v>261.673</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B20" si="2">0.1+B2</f>
-        <v>0.30000000000000004</v>
-      </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f>1/A3</f>
         <v>3.333333333333333</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="3">D2+1</f>
+        <f t="shared" ref="D3:D66" si="1">D2+1</f>
         <v>3</v>
       </c>
       <c r="E3">
         <v>204.50700000000001</v>
       </c>
       <c r="F3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
+        <f>0.1+A3</f>
+        <v>0.4</v>
+      </c>
+      <c r="B4">
         <v>262.048</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>1/A4</f>
         <v>2.5</v>
       </c>
       <c r="D4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E4">
         <v>190.02600000000001</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
+        <f>0.1+A4</f>
+        <v>0.5</v>
+      </c>
+      <c r="B5">
         <v>275.00200000000001</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>1/A5</f>
         <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E5">
         <v>189.21600000000001</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
+        <f>0.1+A5</f>
+        <v>0.6</v>
+      </c>
+      <c r="B6">
         <v>256.94099999999997</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>1/A6</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E6">
         <v>177.05</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
+        <f>0.1+A6</f>
+        <v>0.7</v>
+      </c>
+      <c r="B7">
         <v>259.49</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>1/A7</f>
         <v>1.4285714285714286</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E7">
         <v>160.74199999999999</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
+        <f>0.1+A7</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="B8">
         <v>244.07</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="2"/>
-        <v>0.79999999999999993</v>
-      </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>1/A8</f>
         <v>1.25</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E8">
         <v>158.81</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
+        <f>0.1+A8</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="B9">
         <v>261.70699999999999</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999991</v>
-      </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>1/A9</f>
         <v>1.1111111111111112</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E9">
         <v>149.84</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
+        <f>0.1+A9</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="B10">
         <v>244.65799999999999</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="2"/>
-        <v>0.99999999999999989</v>
-      </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>1/A10</f>
         <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E10">
         <v>144.38800000000001</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
+        <f>0.1+A10</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="B11">
         <v>257.495</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="2"/>
-        <v>1.0999999999999999</v>
-      </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>1/A11</f>
         <v>0.90909090909090917</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E11">
         <v>152.65</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
+        <f>0.1+A11</f>
+        <v>1.2</v>
+      </c>
+      <c r="B12">
         <v>251.017</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>1/A12</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E12">
         <v>143.749</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
+        <f>0.1+A12</f>
+        <v>1.3</v>
+      </c>
+      <c r="B13">
         <v>257.54399999999998</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>1/A13</f>
         <v>0.76923076923076916</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E13">
         <v>144.47300000000001</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
+        <f>0.1+A13</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="B14">
         <v>246.845</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="2"/>
-        <v>1.4000000000000001</v>
-      </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>1/A14</f>
         <v>0.71428571428571419</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="E14">
         <v>133.54900000000001</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
+        <f>0.1+A14</f>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="B15">
         <v>243.72300000000001</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="2"/>
-        <v>1.5000000000000002</v>
-      </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>1/A15</f>
         <v>0.66666666666666652</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="E15">
         <v>144.36199999999999</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
+        <f>0.1+A15</f>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="B16">
         <v>248.959</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="2"/>
-        <v>1.6000000000000003</v>
-      </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>1/A16</f>
         <v>0.62499999999999989</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="E16">
         <v>128.17500000000001</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
+        <f>0.1+A16</f>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="B17">
         <v>244.28200000000001</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="2"/>
-        <v>1.7000000000000004</v>
-      </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>1/A17</f>
         <v>0.58823529411764697</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="E17">
         <v>127.541</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
+        <f>0.1+A17</f>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="B18">
         <v>232.77500000000001</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="2"/>
-        <v>1.8000000000000005</v>
-      </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>1/A18</f>
         <v>0.55555555555555536</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E18">
         <v>150.767</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
+        <f>0.1+A18</f>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="B19">
         <v>218.62</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="2"/>
-        <v>1.9000000000000006</v>
-      </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>1/A19</f>
         <v>0.52631578947368407</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E19">
         <v>125.97499999999999</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
+        <f>0.1+A19</f>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="B20">
         <v>219.21600000000001</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="2"/>
-        <v>2.0000000000000004</v>
-      </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>1/A20</f>
         <v>0.49999999999999989</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="E20">
         <v>124.995</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="E21">
         <v>127.00700000000001</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="E22">
         <v>123.998</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="E23">
         <v>118.02</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="E24">
         <v>121.91800000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="E25">
         <v>133.761</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="E26">
         <v>114.358</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="E27">
         <v>114.008</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E28">
         <v>119.782</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="E29">
         <v>126.5</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E30">
         <v>129.28200000000001</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="E31">
         <v>111.623</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="E32">
         <v>114.434</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="E33">
         <v>109.291</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="E34">
         <v>111.77500000000001</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="E35">
         <v>104.196</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="E36">
         <v>106.104</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="E37">
         <v>106.432</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="E38">
         <v>105.904</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="E39">
         <v>104.239</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.564102564102564E-2</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="E40">
         <v>106.81699999999999</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="E41">
         <v>107.532</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="E42">
         <v>103.108</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="E43">
         <v>101.52</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="E44">
         <v>110.538</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2727272727272728E-2</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="E45">
         <v>102.648</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="E46">
         <v>98.784000000000006</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1739130434782608E-2</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="E47">
         <v>104.827</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1276595744680851E-2</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="E48">
         <v>100.157</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="E49">
         <v>98.362300000000005</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="E50">
         <v>101.843</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="E51">
         <v>98.043800000000005</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="E52">
         <v>105.343</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="E53">
         <v>98.356300000000005</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8867924528301886E-2</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="E54">
         <v>100.22</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="E55">
         <v>91.368799999999993</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8181818181818181E-2</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="E56">
         <v>101.786</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="E57">
         <v>101.434</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7543859649122806E-2</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="E58">
         <v>92.433300000000003</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7241379310344827E-2</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="E59">
         <v>95.743300000000005</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="E60">
         <v>103.94</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="E61">
         <v>98.670500000000004</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6393442622950821E-2</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="E62">
         <v>87.585300000000004</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6129032258064516E-2</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="E63">
         <v>88.977800000000002</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5873015873015872E-2</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="E64">
         <v>92.7042</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="E65">
         <v>83.676599999999993</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5384615384615385E-2</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="E66">
         <v>95.872399999999999</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F100" si="4">1/D66</f>
+        <f t="shared" ref="F66:F100" si="2">1/D66</f>
         <v>1.5151515151515152E-2</v>
       </c>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D67">
-        <f t="shared" ref="D67:D100" si="5">D66+1</f>
+        <f t="shared" ref="D67:D100" si="3">D66+1</f>
         <v>67</v>
       </c>
       <c r="E67">
         <v>93.147099999999995</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4925373134328358E-2</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="E68">
         <v>89.378699999999995</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="E69">
         <v>82.315799999999996</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4492753623188406E-2</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="E70">
         <v>95.838499999999996</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4285714285714285E-2</v>
       </c>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="E71">
         <v>89.138599999999997</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4084507042253521E-2</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="E72">
         <v>89.631500000000003</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="E73">
         <v>91.166899999999998</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3698630136986301E-2</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="E74">
         <v>90.672799999999995</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3513513513513514E-2</v>
       </c>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="E75">
         <v>94.274799999999999</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="E76">
         <v>80.764799999999994</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3157894736842105E-2</v>
       </c>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="E77">
         <v>82.271500000000003</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2987012987012988E-2</v>
       </c>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="E78">
         <v>79.133799999999994</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.282051282051282E-2</v>
       </c>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="E79">
         <v>90.633099999999999</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2658227848101266E-2</v>
       </c>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="E80">
         <v>79.802800000000005</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="E81">
         <v>81.051900000000003</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2345679012345678E-2</v>
       </c>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="E82">
         <v>81.762500000000003</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2195121951219513E-2</v>
       </c>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="E83">
         <v>86.7881</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2048192771084338E-2</v>
       </c>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="E84">
         <v>86.971999999999994</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1904761904761904E-2</v>
       </c>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="E85">
         <v>89.672499999999999</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="E86">
         <v>84.273399999999995</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1627906976744186E-2</v>
       </c>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="E87">
         <v>80.683099999999996</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1494252873563218E-2</v>
       </c>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="E88">
         <v>87.758499999999998</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1363636363636364E-2</v>
       </c>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="E89">
         <v>83.172899999999998</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1235955056179775E-2</v>
       </c>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="E90">
         <v>79.385099999999994</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="E91">
         <v>75.574600000000004</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.098901098901099E-2</v>
       </c>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="E92">
         <v>80.938000000000002</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0869565217391304E-2</v>
       </c>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="E93">
         <v>86.7059</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0752688172043012E-2</v>
       </c>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="E94">
         <v>80.441500000000005</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0638297872340425E-2</v>
       </c>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="E95">
         <v>78.050299999999993</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0526315789473684E-2</v>
       </c>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="E96">
         <v>70.527199999999993</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="E97">
         <v>80.249700000000004</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0309278350515464E-2</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="E98">
         <v>78.541300000000007</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.020408163265306E-2</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="E99">
         <v>69.338200000000001</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0101010101010102E-2</v>
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="E100">
         <v>81.096000000000004</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
     </row>
@@ -9440,7 +9462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
